--- a/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.63535742967712</v>
+        <v>21.63535742967694</v>
       </c>
       <c r="C2">
-        <v>13.38650051746055</v>
+        <v>13.38650051746054</v>
       </c>
       <c r="D2">
-        <v>9.681715245678136</v>
+        <v>9.681715245678166</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.10761400613003</v>
+        <v>63.10761400612999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.24062319774549</v>
+        <v>12.24062319774543</v>
       </c>
       <c r="L2">
-        <v>17.15863228194414</v>
+        <v>17.15863228194403</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.00069581944026</v>
+        <v>20.00069581944022</v>
       </c>
       <c r="C3">
-        <v>12.44984880284782</v>
+        <v>12.4498488028478</v>
       </c>
       <c r="D3">
-        <v>9.190383188062922</v>
+        <v>9.190383188062965</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.08741642783302</v>
+        <v>59.08741642783307</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.54549152980316</v>
+        <v>11.54549152980319</v>
       </c>
       <c r="L3">
-        <v>15.90328523716113</v>
+        <v>15.90328523716112</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.95533381484833</v>
+        <v>18.95533381484835</v>
       </c>
       <c r="C4">
-        <v>11.85427198313637</v>
+        <v>11.854271983136</v>
       </c>
       <c r="D4">
-        <v>8.884097673873759</v>
+        <v>8.884097673873741</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.54982937342849</v>
+        <v>56.54982937342828</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>11.11208121980896</v>
       </c>
       <c r="L4">
-        <v>15.09954969185668</v>
+        <v>15.09954969185666</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.51845969774452</v>
+        <v>18.5184596977445</v>
       </c>
       <c r="C5">
-        <v>11.60615448859674</v>
+        <v>11.60615448859644</v>
       </c>
       <c r="D5">
-        <v>8.758100462950482</v>
+        <v>8.758100462950466</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.49818009425228</v>
+        <v>55.49818009425241</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.93385782691556</v>
+        <v>10.9338578269156</v>
       </c>
       <c r="L5">
-        <v>14.76343876140531</v>
+        <v>14.76343876140529</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44524905499196</v>
+        <v>18.44524905499189</v>
       </c>
       <c r="C6">
-        <v>11.5646206043893</v>
+        <v>11.56462060438913</v>
       </c>
       <c r="D6">
-        <v>8.737107081198598</v>
+        <v>8.737107081198632</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.32249391981083</v>
+        <v>55.32249391981088</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.90416959061859</v>
+        <v>10.90416959061857</v>
       </c>
       <c r="L6">
-        <v>14.70710134206091</v>
+        <v>14.70710134206087</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94948653049422</v>
+        <v>18.94948653049426</v>
       </c>
       <c r="C7">
-        <v>11.85094803581709</v>
+        <v>11.8509480358168</v>
       </c>
       <c r="D7">
-        <v>8.882403234580112</v>
+        <v>8.882403234580186</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.53571760525925</v>
+        <v>56.53571760525929</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.10968402729185</v>
+        <v>11.10968402729186</v>
       </c>
       <c r="L7">
-        <v>15.09505190217609</v>
+        <v>15.09505190217605</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.08011830022768</v>
+        <v>21.08011830022757</v>
       </c>
       <c r="C8">
-        <v>13.06761728241609</v>
+        <v>13.06761728241617</v>
       </c>
       <c r="D8">
-        <v>9.513234927021488</v>
+        <v>9.513234927021477</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.73562228527759</v>
+        <v>61.73562228527771</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.00232649765489</v>
+        <v>12.00232649765492</v>
       </c>
       <c r="L8">
-        <v>16.7324376399245</v>
+        <v>16.73243763992449</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.94864078059975</v>
+        <v>24.9486407805997</v>
       </c>
       <c r="C9">
-        <v>15.30556525205486</v>
+        <v>15.30556525205497</v>
       </c>
       <c r="D9">
-        <v>10.7167064380226</v>
+        <v>10.71670643802259</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.40604799241622</v>
+        <v>71.40604799241609</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>13.70107894089391</v>
       </c>
       <c r="L9">
-        <v>19.69728647025677</v>
+        <v>19.69728647025676</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.63696735210629</v>
+        <v>27.63696735210645</v>
       </c>
       <c r="C10">
-        <v>16.8842612076634</v>
+        <v>16.88426120766331</v>
       </c>
       <c r="D10">
-        <v>11.5876221078024</v>
+        <v>11.58762210780237</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.24374468569616</v>
+        <v>78.24374468569634</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.95330341643281</v>
+        <v>14.95330341643278</v>
       </c>
       <c r="L10">
-        <v>21.75078689411994</v>
+        <v>21.75078689411995</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.83640562239163</v>
+        <v>28.83640562239195</v>
       </c>
       <c r="C11">
-        <v>17.5953766245742</v>
+        <v>17.59537662457437</v>
       </c>
       <c r="D11">
-        <v>11.98357344182619</v>
+        <v>11.98357344182634</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.31561140998693</v>
+        <v>81.31561140998767</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.58938550354636</v>
+        <v>15.58938550354648</v>
       </c>
       <c r="L11">
-        <v>22.66493855167484</v>
+        <v>22.66493855167504</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.28826350183929</v>
+        <v>29.28826350183915</v>
       </c>
       <c r="C12">
-        <v>17.86441231309092</v>
+        <v>17.86441231309072</v>
       </c>
       <c r="D12">
-        <v>12.13378749871413</v>
+        <v>12.13378749871397</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.47552046419409</v>
+        <v>82.47552046419331</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.82862839195488</v>
+        <v>15.8286283919549</v>
       </c>
       <c r="L12">
-        <v>23.00896738199879</v>
+        <v>23.00896738199872</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.19103307641947</v>
+        <v>29.19103307641954</v>
       </c>
       <c r="C13">
-        <v>17.80646760580698</v>
+        <v>17.80646760580695</v>
       </c>
       <c r="D13">
-        <v>12.10141803990657</v>
+        <v>12.10141803990674</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.22581995548495</v>
+        <v>82.22581995548609</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.7771668070558</v>
+        <v>15.77716680705588</v>
       </c>
       <c r="L13">
-        <v>22.93495639921232</v>
+        <v>22.93495639921241</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.87362045867143</v>
+        <v>28.8736204586715</v>
       </c>
       <c r="C14">
-        <v>17.61751031485081</v>
+        <v>17.61751031485067</v>
       </c>
       <c r="D14">
-        <v>11.99592401891972</v>
+        <v>11.99592401891973</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.41108989365452</v>
+        <v>81.41108989365475</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>15.6090976702597</v>
       </c>
       <c r="L14">
-        <v>22.69328013503265</v>
+        <v>22.69328013503272</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.67892548705367</v>
+        <v>28.67892548705366</v>
       </c>
       <c r="C15">
-        <v>17.50176187702059</v>
+        <v>17.50176187702054</v>
       </c>
       <c r="D15">
-        <v>11.93135252428579</v>
+        <v>11.93135252428565</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.91168532818084</v>
+        <v>80.9116853281803</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.50595445734318</v>
+        <v>15.50595445734317</v>
       </c>
       <c r="L15">
-        <v>22.54499217126659</v>
+        <v>22.54499217126662</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.55819198391777</v>
+        <v>27.55819198391765</v>
       </c>
       <c r="C16">
-        <v>16.83770792163527</v>
+        <v>16.83770792163543</v>
       </c>
       <c r="D16">
-        <v>11.56176554420021</v>
+        <v>11.5617655442002</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.04238954246692</v>
+        <v>78.04238954246659</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.91147788852913</v>
+        <v>14.91147788852911</v>
       </c>
       <c r="L16">
-        <v>21.69070193890488</v>
+        <v>21.69070193890476</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.86531053437289</v>
+        <v>26.86531053437292</v>
       </c>
       <c r="C17">
-        <v>16.42902082905521</v>
+        <v>16.42902082905528</v>
       </c>
       <c r="D17">
-        <v>11.33516979733753</v>
+        <v>11.33516979733756</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.27366993006493</v>
+        <v>76.27366993006514</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.56974409207847</v>
+        <v>14.56974409207845</v>
       </c>
       <c r="L17">
-        <v>21.16197777822167</v>
+        <v>21.16197777822168</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.46449876533131</v>
+        <v>26.46449876533136</v>
       </c>
       <c r="C18">
-        <v>16.19323755798618</v>
+        <v>16.19323755798624</v>
       </c>
       <c r="D18">
-        <v>11.20479289253852</v>
+        <v>11.20479289253862</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.25254855704098</v>
+        <v>75.25254855704145</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.3869209919547</v>
+        <v>14.38692099195473</v>
       </c>
       <c r="L18">
-        <v>20.85593572028043</v>
+        <v>20.8559357202805</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.32837032317165</v>
+        <v>26.32837032317181</v>
       </c>
       <c r="C19">
-        <v>16.11326161726319</v>
+        <v>16.11326161726329</v>
       </c>
       <c r="D19">
-        <v>11.16063374019322</v>
+        <v>11.16063374019337</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.90610351973504</v>
+        <v>74.90610351973575</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.3249606826135</v>
+        <v>14.32496068261356</v>
       </c>
       <c r="L19">
-        <v>20.75196300397014</v>
+        <v>20.75196300397027</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.93929860056682</v>
+        <v>26.93929860056677</v>
       </c>
       <c r="C20">
-        <v>16.47259550649556</v>
+        <v>16.47259550649566</v>
       </c>
       <c r="D20">
-        <v>11.35929399673741</v>
+        <v>11.35929399673727</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.46233232304326</v>
+        <v>76.46233232304301</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>14.60355427638393</v>
       </c>
       <c r="L20">
-        <v>21.21845667812079</v>
+        <v>21.21845667812075</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.96690644559052</v>
+        <v>28.96690644559049</v>
       </c>
       <c r="C21">
-        <v>17.67301141208804</v>
+        <v>17.67301141208839</v>
       </c>
       <c r="D21">
-        <v>12.02689976727231</v>
+        <v>12.02689976727238</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.65046581108089</v>
+        <v>81.65046581108112</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.65850349519493</v>
+        <v>15.65850349519497</v>
       </c>
       <c r="L21">
-        <v>22.76431776000513</v>
+        <v>22.76431776000518</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.27906647620285</v>
+        <v>30.27906647620282</v>
       </c>
       <c r="C22">
-        <v>18.45659971757174</v>
+        <v>18.45659971757146</v>
       </c>
       <c r="D22">
-        <v>12.46504036743516</v>
+        <v>12.46504036743518</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.06013827315549</v>
+        <v>85.0601382731558</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.35243421403459</v>
+        <v>16.35243421403462</v>
       </c>
       <c r="L22">
-        <v>23.76261578987795</v>
+        <v>23.76261578987798</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.57952587532495</v>
+        <v>29.5795258753247</v>
       </c>
       <c r="C23">
-        <v>18.03816921995236</v>
+        <v>18.03816921995234</v>
       </c>
       <c r="D23">
-        <v>12.23090274607105</v>
+        <v>12.23090274607095</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.22387237863521</v>
+        <v>83.22387237863454</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.9827242046557</v>
+        <v>15.98272420465569</v>
       </c>
       <c r="L23">
-        <v>23.2306176865968</v>
+        <v>23.23061768659672</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.90585634878208</v>
+        <v>26.90585634878217</v>
       </c>
       <c r="C24">
-        <v>16.4528980154751</v>
+        <v>16.45289801547494</v>
       </c>
       <c r="D24">
-        <v>11.34838779222495</v>
+        <v>11.34838779222496</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.37705148599086</v>
+        <v>76.37705148599122</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>14.58826989421204</v>
       </c>
       <c r="L24">
-        <v>21.19292907304518</v>
+        <v>21.19292907304519</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.93200413536443</v>
+        <v>23.93200413536454</v>
       </c>
       <c r="C25">
-        <v>14.71371143612279</v>
+        <v>14.71371143612272</v>
       </c>
       <c r="D25">
-        <v>10.39415867324346</v>
+        <v>10.39415867324345</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.8419927336827</v>
+        <v>68.84199273368301</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.24672546868643</v>
+        <v>13.24672546868646</v>
       </c>
       <c r="L25">
-        <v>18.91919772126136</v>
+        <v>18.91919772126142</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.63535742967694</v>
+        <v>21.63535742967712</v>
       </c>
       <c r="C2">
-        <v>13.38650051746054</v>
+        <v>13.38650051746055</v>
       </c>
       <c r="D2">
-        <v>9.681715245678166</v>
+        <v>9.681715245678136</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.10761400612999</v>
+        <v>63.10761400613003</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.24062319774543</v>
+        <v>12.24062319774549</v>
       </c>
       <c r="L2">
-        <v>17.15863228194403</v>
+        <v>17.15863228194414</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.00069581944022</v>
+        <v>20.00069581944026</v>
       </c>
       <c r="C3">
-        <v>12.4498488028478</v>
+        <v>12.44984880284782</v>
       </c>
       <c r="D3">
-        <v>9.190383188062965</v>
+        <v>9.190383188062922</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.08741642783307</v>
+        <v>59.08741642783302</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.54549152980319</v>
+        <v>11.54549152980316</v>
       </c>
       <c r="L3">
-        <v>15.90328523716112</v>
+        <v>15.90328523716113</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.95533381484835</v>
+        <v>18.95533381484833</v>
       </c>
       <c r="C4">
-        <v>11.854271983136</v>
+        <v>11.85427198313637</v>
       </c>
       <c r="D4">
-        <v>8.884097673873741</v>
+        <v>8.884097673873759</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.54982937342828</v>
+        <v>56.54982937342849</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>11.11208121980896</v>
       </c>
       <c r="L4">
-        <v>15.09954969185666</v>
+        <v>15.09954969185668</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5184596977445</v>
+        <v>18.51845969774452</v>
       </c>
       <c r="C5">
-        <v>11.60615448859644</v>
+        <v>11.60615448859674</v>
       </c>
       <c r="D5">
-        <v>8.758100462950466</v>
+        <v>8.758100462950482</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.49818009425241</v>
+        <v>55.49818009425228</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.9338578269156</v>
+        <v>10.93385782691556</v>
       </c>
       <c r="L5">
-        <v>14.76343876140529</v>
+        <v>14.76343876140531</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44524905499189</v>
+        <v>18.44524905499196</v>
       </c>
       <c r="C6">
-        <v>11.56462060438913</v>
+        <v>11.5646206043893</v>
       </c>
       <c r="D6">
-        <v>8.737107081198632</v>
+        <v>8.737107081198598</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.32249391981088</v>
+        <v>55.32249391981083</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.90416959061857</v>
+        <v>10.90416959061859</v>
       </c>
       <c r="L6">
-        <v>14.70710134206087</v>
+        <v>14.70710134206091</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94948653049426</v>
+        <v>18.94948653049422</v>
       </c>
       <c r="C7">
-        <v>11.8509480358168</v>
+        <v>11.85094803581709</v>
       </c>
       <c r="D7">
-        <v>8.882403234580186</v>
+        <v>8.882403234580112</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.53571760525929</v>
+        <v>56.53571760525925</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.10968402729186</v>
+        <v>11.10968402729185</v>
       </c>
       <c r="L7">
-        <v>15.09505190217605</v>
+        <v>15.09505190217609</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.08011830022757</v>
+        <v>21.08011830022768</v>
       </c>
       <c r="C8">
-        <v>13.06761728241617</v>
+        <v>13.06761728241609</v>
       </c>
       <c r="D8">
-        <v>9.513234927021477</v>
+        <v>9.513234927021488</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.73562228527771</v>
+        <v>61.73562228527759</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.00232649765492</v>
+        <v>12.00232649765489</v>
       </c>
       <c r="L8">
-        <v>16.73243763992449</v>
+        <v>16.7324376399245</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.9486407805997</v>
+        <v>24.94864078059975</v>
       </c>
       <c r="C9">
-        <v>15.30556525205497</v>
+        <v>15.30556525205486</v>
       </c>
       <c r="D9">
-        <v>10.71670643802259</v>
+        <v>10.7167064380226</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.40604799241609</v>
+        <v>71.40604799241622</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>13.70107894089391</v>
       </c>
       <c r="L9">
-        <v>19.69728647025676</v>
+        <v>19.69728647025677</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.63696735210645</v>
+        <v>27.63696735210629</v>
       </c>
       <c r="C10">
-        <v>16.88426120766331</v>
+        <v>16.8842612076634</v>
       </c>
       <c r="D10">
-        <v>11.58762210780237</v>
+        <v>11.5876221078024</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.24374468569634</v>
+        <v>78.24374468569616</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.95330341643278</v>
+        <v>14.95330341643281</v>
       </c>
       <c r="L10">
-        <v>21.75078689411995</v>
+        <v>21.75078689411994</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.83640562239195</v>
+        <v>28.83640562239163</v>
       </c>
       <c r="C11">
-        <v>17.59537662457437</v>
+        <v>17.5953766245742</v>
       </c>
       <c r="D11">
-        <v>11.98357344182634</v>
+        <v>11.98357344182619</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.31561140998767</v>
+        <v>81.31561140998693</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.58938550354648</v>
+        <v>15.58938550354636</v>
       </c>
       <c r="L11">
-        <v>22.66493855167504</v>
+        <v>22.66493855167484</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.28826350183915</v>
+        <v>29.28826350183929</v>
       </c>
       <c r="C12">
-        <v>17.86441231309072</v>
+        <v>17.86441231309092</v>
       </c>
       <c r="D12">
-        <v>12.13378749871397</v>
+        <v>12.13378749871413</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.47552046419331</v>
+        <v>82.47552046419409</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.8286283919549</v>
+        <v>15.82862839195488</v>
       </c>
       <c r="L12">
-        <v>23.00896738199872</v>
+        <v>23.00896738199879</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.19103307641954</v>
+        <v>29.19103307641947</v>
       </c>
       <c r="C13">
-        <v>17.80646760580695</v>
+        <v>17.80646760580698</v>
       </c>
       <c r="D13">
-        <v>12.10141803990674</v>
+        <v>12.10141803990657</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.22581995548609</v>
+        <v>82.22581995548495</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.77716680705588</v>
+        <v>15.7771668070558</v>
       </c>
       <c r="L13">
-        <v>22.93495639921241</v>
+        <v>22.93495639921232</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.8736204586715</v>
+        <v>28.87362045867143</v>
       </c>
       <c r="C14">
-        <v>17.61751031485067</v>
+        <v>17.61751031485081</v>
       </c>
       <c r="D14">
-        <v>11.99592401891973</v>
+        <v>11.99592401891972</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.41108989365475</v>
+        <v>81.41108989365452</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>15.6090976702597</v>
       </c>
       <c r="L14">
-        <v>22.69328013503272</v>
+        <v>22.69328013503265</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.67892548705366</v>
+        <v>28.67892548705367</v>
       </c>
       <c r="C15">
-        <v>17.50176187702054</v>
+        <v>17.50176187702059</v>
       </c>
       <c r="D15">
-        <v>11.93135252428565</v>
+        <v>11.93135252428579</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.9116853281803</v>
+        <v>80.91168532818084</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.50595445734317</v>
+        <v>15.50595445734318</v>
       </c>
       <c r="L15">
-        <v>22.54499217126662</v>
+        <v>22.54499217126659</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.55819198391765</v>
+        <v>27.55819198391777</v>
       </c>
       <c r="C16">
-        <v>16.83770792163543</v>
+        <v>16.83770792163527</v>
       </c>
       <c r="D16">
-        <v>11.5617655442002</v>
+        <v>11.56176554420021</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.04238954246659</v>
+        <v>78.04238954246692</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.91147788852911</v>
+        <v>14.91147788852913</v>
       </c>
       <c r="L16">
-        <v>21.69070193890476</v>
+        <v>21.69070193890488</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.86531053437292</v>
+        <v>26.86531053437289</v>
       </c>
       <c r="C17">
-        <v>16.42902082905528</v>
+        <v>16.42902082905521</v>
       </c>
       <c r="D17">
-        <v>11.33516979733756</v>
+        <v>11.33516979733753</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.27366993006514</v>
+        <v>76.27366993006493</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.56974409207845</v>
+        <v>14.56974409207847</v>
       </c>
       <c r="L17">
-        <v>21.16197777822168</v>
+        <v>21.16197777822167</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.46449876533136</v>
+        <v>26.46449876533131</v>
       </c>
       <c r="C18">
-        <v>16.19323755798624</v>
+        <v>16.19323755798618</v>
       </c>
       <c r="D18">
-        <v>11.20479289253862</v>
+        <v>11.20479289253852</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.25254855704145</v>
+        <v>75.25254855704098</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.38692099195473</v>
+        <v>14.3869209919547</v>
       </c>
       <c r="L18">
-        <v>20.8559357202805</v>
+        <v>20.85593572028043</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.32837032317181</v>
+        <v>26.32837032317165</v>
       </c>
       <c r="C19">
-        <v>16.11326161726329</v>
+        <v>16.11326161726319</v>
       </c>
       <c r="D19">
-        <v>11.16063374019337</v>
+        <v>11.16063374019322</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.90610351973575</v>
+        <v>74.90610351973504</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.32496068261356</v>
+        <v>14.3249606826135</v>
       </c>
       <c r="L19">
-        <v>20.75196300397027</v>
+        <v>20.75196300397014</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.93929860056677</v>
+        <v>26.93929860056682</v>
       </c>
       <c r="C20">
-        <v>16.47259550649566</v>
+        <v>16.47259550649556</v>
       </c>
       <c r="D20">
-        <v>11.35929399673727</v>
+        <v>11.35929399673741</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.46233232304301</v>
+        <v>76.46233232304326</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>14.60355427638393</v>
       </c>
       <c r="L20">
-        <v>21.21845667812075</v>
+        <v>21.21845667812079</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.96690644559049</v>
+        <v>28.96690644559052</v>
       </c>
       <c r="C21">
-        <v>17.67301141208839</v>
+        <v>17.67301141208804</v>
       </c>
       <c r="D21">
-        <v>12.02689976727238</v>
+        <v>12.02689976727231</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.65046581108112</v>
+        <v>81.65046581108089</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.65850349519497</v>
+        <v>15.65850349519493</v>
       </c>
       <c r="L21">
-        <v>22.76431776000518</v>
+        <v>22.76431776000513</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.27906647620282</v>
+        <v>30.27906647620285</v>
       </c>
       <c r="C22">
-        <v>18.45659971757146</v>
+        <v>18.45659971757174</v>
       </c>
       <c r="D22">
-        <v>12.46504036743518</v>
+        <v>12.46504036743516</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.0601382731558</v>
+        <v>85.06013827315549</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.35243421403462</v>
+        <v>16.35243421403459</v>
       </c>
       <c r="L22">
-        <v>23.76261578987798</v>
+        <v>23.76261578987795</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.5795258753247</v>
+        <v>29.57952587532495</v>
       </c>
       <c r="C23">
-        <v>18.03816921995234</v>
+        <v>18.03816921995236</v>
       </c>
       <c r="D23">
-        <v>12.23090274607095</v>
+        <v>12.23090274607105</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.22387237863454</v>
+        <v>83.22387237863521</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.98272420465569</v>
+        <v>15.9827242046557</v>
       </c>
       <c r="L23">
-        <v>23.23061768659672</v>
+        <v>23.2306176865968</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.90585634878217</v>
+        <v>26.90585634878208</v>
       </c>
       <c r="C24">
-        <v>16.45289801547494</v>
+        <v>16.4528980154751</v>
       </c>
       <c r="D24">
-        <v>11.34838779222496</v>
+        <v>11.34838779222495</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.37705148599122</v>
+        <v>76.37705148599086</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>14.58826989421204</v>
       </c>
       <c r="L24">
-        <v>21.19292907304519</v>
+        <v>21.19292907304518</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.93200413536454</v>
+        <v>23.93200413536443</v>
       </c>
       <c r="C25">
-        <v>14.71371143612272</v>
+        <v>14.71371143612279</v>
       </c>
       <c r="D25">
-        <v>10.39415867324345</v>
+        <v>10.39415867324346</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.84199273368301</v>
+        <v>68.8419927336827</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.24672546868646</v>
+        <v>13.24672546868643</v>
       </c>
       <c r="L25">
-        <v>18.91919772126142</v>
+        <v>18.91919772126136</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.63535742967712</v>
+        <v>21.48392388008382</v>
       </c>
       <c r="C2">
-        <v>13.38650051746055</v>
+        <v>13.14718920377207</v>
       </c>
       <c r="D2">
-        <v>9.681715245678136</v>
+        <v>9.756929066100682</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.10761400613003</v>
+        <v>63.16877419416355</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.048573085737054</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,33 +442,36 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.24062319774549</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>17.15863228194414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.20108627966717</v>
+      </c>
+      <c r="M2">
+        <v>17.09389488437981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.00069581944026</v>
+        <v>19.85843189483267</v>
       </c>
       <c r="C3">
-        <v>12.44984880284782</v>
+        <v>12.2123993714883</v>
       </c>
       <c r="D3">
-        <v>9.190383188062922</v>
+        <v>9.274143385617974</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.08741642783302</v>
+        <v>59.18853881642926</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.063969250988297</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,33 +483,36 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.54549152980316</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>15.90328523716113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>11.50426737517653</v>
+      </c>
+      <c r="M3">
+        <v>15.8419140896241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.95533381484833</v>
+        <v>18.8190511894765</v>
       </c>
       <c r="C4">
-        <v>11.85427198313637</v>
+        <v>11.61763955131674</v>
       </c>
       <c r="D4">
-        <v>8.884097673873759</v>
+        <v>8.973489948686133</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.54982937342849</v>
+        <v>56.67770899814264</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.073525773313557</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,33 +524,36 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.11208121980896</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>15.09954969185668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.06953983657156</v>
+      </c>
+      <c r="M4">
+        <v>15.04021796572131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.51845969774452</v>
+        <v>18.38471599765213</v>
       </c>
       <c r="C5">
-        <v>11.60615448859674</v>
+        <v>11.36976964057732</v>
       </c>
       <c r="D5">
-        <v>8.758100462950482</v>
+        <v>8.84988639485881</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.49818009425228</v>
+        <v>55.63756167637527</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.07745299774484</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,33 +565,36 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.93385782691556</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>14.76343876140531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>10.89070948775247</v>
+      </c>
+      <c r="M5">
+        <v>14.70493409629409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44524905499196</v>
+        <v>18.3119334763366</v>
       </c>
       <c r="C6">
-        <v>11.5646206043893</v>
+        <v>11.32827157298189</v>
       </c>
       <c r="D6">
-        <v>8.737107081198598</v>
+        <v>8.829296460700595</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.32249391981083</v>
+        <v>55.46382266816079</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.078107282355588</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,33 +606,36 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.90416959061859</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>14.70710134206091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>10.86091624417832</v>
+      </c>
+      <c r="M6">
+        <v>14.64873383692188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94948653049422</v>
+        <v>18.81323771688285</v>
       </c>
       <c r="C7">
-        <v>11.85094803581709</v>
+        <v>11.61431929456936</v>
       </c>
       <c r="D7">
-        <v>8.882403234580112</v>
+        <v>8.97182739052311</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.53571760525925</v>
+        <v>56.66374987542314</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.073578595611747</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,33 +647,36 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.10968402729185</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>15.09505190217609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.06713474187445</v>
+      </c>
+      <c r="M7">
+        <v>15.03573134309004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.08011830022768</v>
+        <v>20.93178129736835</v>
       </c>
       <c r="C8">
-        <v>13.06761728241609</v>
+        <v>12.82901433005266</v>
       </c>
       <c r="D8">
-        <v>9.513234927021488</v>
+        <v>9.591317183196674</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.73562228527759</v>
+        <v>61.81012488770812</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.053864685756876</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,33 +688,36 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.00232649765489</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>16.7324376399245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>11.96226656585743</v>
+      </c>
+      <c r="M8">
+        <v>16.66886861639272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.94864078059975</v>
+        <v>24.77881104517492</v>
       </c>
       <c r="C9">
-        <v>15.30556525205486</v>
+        <v>15.06053127836827</v>
       </c>
       <c r="D9">
-        <v>10.7167064380226</v>
+        <v>10.77545565899601</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.40604799241622</v>
+        <v>71.39135314294933</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.01566218405268</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,33 +729,36 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.70107894089391</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>19.69728647025677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>13.66362981460162</v>
+      </c>
+      <c r="M9">
+        <v>19.62498951915342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.63696735210629</v>
+        <v>27.45185311709681</v>
       </c>
       <c r="C10">
-        <v>16.8842612076634</v>
+        <v>16.63279161529127</v>
       </c>
       <c r="D10">
-        <v>11.5876221078024</v>
+        <v>11.63365238375916</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.24374468569616</v>
+        <v>78.17041575504608</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.987267889049878</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,33 +770,36 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.95330341643281</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>21.75078689411994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>14.94202947389276</v>
+      </c>
+      <c r="M10">
+        <v>21.6714898583948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.83640562239163</v>
+        <v>28.64422387821268</v>
       </c>
       <c r="C11">
-        <v>17.5953766245742</v>
+        <v>17.34051064750138</v>
       </c>
       <c r="D11">
-        <v>11.98357344182619</v>
+        <v>12.02404696280919</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.31561140998693</v>
+        <v>81.21641430538446</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.974107163274434</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,33 +811,36 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.58938550354636</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>22.66493855167484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>15.5765267947929</v>
+      </c>
+      <c r="M11">
+        <v>22.58221358912047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.28826350183929</v>
+        <v>29.09336477122964</v>
       </c>
       <c r="C12">
-        <v>17.86441231309092</v>
+        <v>17.60817885265277</v>
       </c>
       <c r="D12">
-        <v>12.13378749871413</v>
+        <v>12.17217925462166</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.47552046419409</v>
+        <v>82.36657265106743</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.969070140238515</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,33 +852,36 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.82862839195488</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>23.00896738199879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>15.81513454981869</v>
+      </c>
+      <c r="M12">
+        <v>22.92489543902065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.19103307641947</v>
+        <v>28.99672176336484</v>
       </c>
       <c r="C13">
-        <v>17.80646760580698</v>
+        <v>17.55053256216016</v>
       </c>
       <c r="D13">
-        <v>12.10141803990657</v>
+        <v>12.14025734064326</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.22581995548495</v>
+        <v>82.11897142708773</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.970157660767511</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,33 +893,36 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.7771668070558</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>22.93495639921232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>15.76381146696215</v>
+      </c>
+      <c r="M13">
+        <v>22.85117699844058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.87362045867143</v>
+        <v>28.68121616362469</v>
       </c>
       <c r="C14">
-        <v>17.61751031485081</v>
+        <v>17.36253356558801</v>
       </c>
       <c r="D14">
-        <v>11.99592401891972</v>
+        <v>12.03622589211361</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.41108989365452</v>
+        <v>81.31109015139377</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.973693952605523</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,33 +934,36 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.6090976702597</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>22.69328013503265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>15.59618746612942</v>
+      </c>
+      <c r="M14">
+        <v>22.61044543153292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.67892548705367</v>
+        <v>28.48768316999378</v>
       </c>
       <c r="C15">
-        <v>17.50176187702059</v>
+        <v>17.24736100252419</v>
       </c>
       <c r="D15">
-        <v>11.93135252428579</v>
+        <v>11.9725528301035</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.91168532818084</v>
+        <v>80.81588416444865</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.975852475727796</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,33 +975,36 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.50595445734318</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>22.54499217126659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>15.49331206795543</v>
+      </c>
+      <c r="M15">
+        <v>22.46272926460102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.55819198391777</v>
+        <v>27.37353539264117</v>
       </c>
       <c r="C16">
-        <v>16.83770792163527</v>
+        <v>16.58644979543578</v>
       </c>
       <c r="D16">
-        <v>11.56176554420021</v>
+        <v>11.6081627429686</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.04238954246692</v>
+        <v>77.97076163835231</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.988121591879946</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,33 +1016,36 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.91147788852913</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>21.69070193890488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>14.90030310798559</v>
+      </c>
+      <c r="M16">
+        <v>21.61162293770312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.86531053437289</v>
+        <v>26.68464935783601</v>
       </c>
       <c r="C17">
-        <v>16.42902082905521</v>
+        <v>16.17956241764779</v>
       </c>
       <c r="D17">
-        <v>11.33516979733753</v>
+        <v>11.38480717211015</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.27366993006493</v>
+        <v>76.21703172502599</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.995574005917199</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,33 +1057,36 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.56974409207847</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>21.16197777822167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>14.53301697153955</v>
+      </c>
+      <c r="M17">
+        <v>21.08478105850691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.46449876533131</v>
+        <v>26.28612660447828</v>
       </c>
       <c r="C18">
-        <v>16.19323755798618</v>
+        <v>15.94477129219253</v>
       </c>
       <c r="D18">
-        <v>11.20479289253852</v>
+        <v>11.25631626577478</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.25254855704098</v>
+        <v>75.20461269519421</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.999838763770901</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,33 +1098,36 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.3869209919547</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>20.85593572028043</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>14.34985289828427</v>
+      </c>
+      <c r="M18">
+        <v>20.77979975852971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.32837032317165</v>
+        <v>26.15077227230056</v>
       </c>
       <c r="C19">
-        <v>16.11326161726319</v>
+        <v>15.86512422399668</v>
       </c>
       <c r="D19">
-        <v>11.16063374019322</v>
+        <v>11.21279979294909</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.90610351973504</v>
+        <v>74.86112990151476</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.001279508936467</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,33 +1139,36 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.3249606826135</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>20.75196300397014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>14.28787292530608</v>
+      </c>
+      <c r="M19">
+        <v>20.6761827930128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.93929860056682</v>
+        <v>26.7582131969097</v>
       </c>
       <c r="C20">
-        <v>16.47259550649556</v>
+        <v>16.22295004592636</v>
       </c>
       <c r="D20">
-        <v>11.35929399673741</v>
+        <v>11.40858420506144</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.46233232304326</v>
+        <v>76.40409055623495</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.994783046612241</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,33 +1180,36 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.60355427638393</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>21.21845667812079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>14.57226008430419</v>
+      </c>
+      <c r="M20">
+        <v>21.14106193761156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.96690644559052</v>
+        <v>28.77394334258349</v>
       </c>
       <c r="C21">
-        <v>17.67301141208804</v>
+        <v>17.41775553710762</v>
       </c>
       <c r="D21">
-        <v>12.02689976727231</v>
+        <v>12.06677153591854</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.65046581108089</v>
+        <v>81.54845383443759</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.972656871546143</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,33 +1221,36 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.65850349519493</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>22.76431776000513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>15.6454635716348</v>
+      </c>
+      <c r="M21">
+        <v>22.68120703665453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.27906647620285</v>
+        <v>30.07808696206557</v>
       </c>
       <c r="C22">
-        <v>18.45659971757174</v>
+        <v>18.19719174291993</v>
       </c>
       <c r="D22">
-        <v>12.46504036743516</v>
+        <v>12.49888038965326</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.06013827315549</v>
+        <v>84.8928413149943</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.957873537769879</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,33 +1262,36 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.35243421403459</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>23.76261578987795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>16.33746927795626</v>
+      </c>
+      <c r="M22">
+        <v>23.67547418162528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.57952587532495</v>
+        <v>29.38285794025992</v>
       </c>
       <c r="C23">
-        <v>18.03816921995236</v>
+        <v>17.78102798867275</v>
       </c>
       <c r="D23">
-        <v>12.23090274607105</v>
+        <v>12.26795497219668</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.22387237863521</v>
+        <v>83.10863084808884</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.965800365128576</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,33 +1303,36 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.9827242046557</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>23.2306176865968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>15.96880932273123</v>
+      </c>
+      <c r="M23">
+        <v>23.14566032719387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.90585634878208</v>
+        <v>26.72496276139699</v>
       </c>
       <c r="C24">
-        <v>16.4528980154751</v>
+        <v>16.20333725135001</v>
       </c>
       <c r="D24">
-        <v>11.34838779222495</v>
+        <v>11.39783488155345</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.37705148599086</v>
+        <v>76.31953442094337</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.995140699459384</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,33 +1344,36 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.58826989421204</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>21.19292907304518</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>14.55452305881843</v>
+      </c>
+      <c r="M24">
+        <v>21.1156239233831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.93200413536443</v>
+        <v>23.76783395856838</v>
       </c>
       <c r="C25">
-        <v>14.71371143612279</v>
+        <v>14.47069662157717</v>
       </c>
       <c r="D25">
-        <v>10.39415867324346</v>
+        <v>10.4578513972641</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.8419927336827</v>
+        <v>68.85000620447246</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.026004258718292</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.24672546868643</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>18.91919772126136</v>
+        <v>13.20882064577442</v>
+      </c>
+      <c r="M25">
+        <v>18.84933411693251</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.48392388008382</v>
+        <v>23.35316251612488</v>
       </c>
       <c r="C2">
-        <v>13.14718920377207</v>
+        <v>16.76057254315075</v>
       </c>
       <c r="D2">
-        <v>9.756929066100682</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>3.022257733401961</v>
       </c>
       <c r="F2">
-        <v>63.16877419416355</v>
+        <v>24.37627759458863</v>
       </c>
       <c r="G2">
-        <v>2.048573085737054</v>
+        <v>2.048825917501766</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -438,40 +441,34 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>12.20108627966717</v>
-      </c>
-      <c r="M2">
-        <v>17.09389488437981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>10.85670130077282</v>
+      </c>
+      <c r="O2">
+        <v>18.30697971529774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.85843189483267</v>
+        <v>21.73275639994748</v>
       </c>
       <c r="C3">
-        <v>12.2123993714883</v>
+        <v>15.64268344395051</v>
       </c>
       <c r="D3">
-        <v>9.274143385617974</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>3.066495981417139</v>
       </c>
       <c r="F3">
-        <v>59.18853881642926</v>
+        <v>23.22414016721417</v>
       </c>
       <c r="G3">
-        <v>2.063969250988297</v>
+        <v>2.057362081699766</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -479,40 +476,34 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>11.50426737517653</v>
-      </c>
-      <c r="M3">
-        <v>15.8419140896241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>11.10046970433141</v>
+      </c>
+      <c r="O3">
+        <v>17.63328963935804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.8190511894765</v>
+        <v>20.68310217523587</v>
       </c>
       <c r="C4">
-        <v>11.61763955131674</v>
+        <v>14.919370145769</v>
       </c>
       <c r="D4">
-        <v>8.973489948686133</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>3.094472058996622</v>
       </c>
       <c r="F4">
-        <v>56.67770899814264</v>
+        <v>22.52375792646101</v>
       </c>
       <c r="G4">
-        <v>2.073525773313557</v>
+        <v>2.062734270930922</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -520,40 +511,34 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>11.06953983657156</v>
-      </c>
-      <c r="M4">
-        <v>15.04021796572131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>11.25310068459675</v>
+      </c>
+      <c r="O4">
+        <v>17.23545558885326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.38471599765213</v>
+        <v>20.24145343888953</v>
       </c>
       <c r="C5">
-        <v>11.36976964057732</v>
+        <v>14.61525397888039</v>
       </c>
       <c r="D5">
-        <v>8.84988639485881</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>3.106075167387027</v>
       </c>
       <c r="F5">
-        <v>55.63756167637527</v>
+        <v>22.24045175409164</v>
       </c>
       <c r="G5">
-        <v>2.07745299774484</v>
+        <v>2.064958058697808</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -561,40 +546,34 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>10.89070948775247</v>
-      </c>
-      <c r="M5">
-        <v>14.70493409629409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>11.31607655127293</v>
+      </c>
+      <c r="O5">
+        <v>17.07741354471919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.3119334763366</v>
+        <v>20.1672739256214</v>
       </c>
       <c r="C6">
-        <v>11.32827157298189</v>
+        <v>14.56418840970043</v>
       </c>
       <c r="D6">
-        <v>8.829296460700595</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>3.108014055578024</v>
       </c>
       <c r="F6">
-        <v>55.46382266816079</v>
+        <v>22.19354682394526</v>
       </c>
       <c r="G6">
-        <v>2.078107282355588</v>
+        <v>2.065329451478797</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,40 +581,34 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>10.86091624417832</v>
-      </c>
-      <c r="M6">
-        <v>14.64873383692188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>11.32658157788685</v>
+      </c>
+      <c r="O6">
+        <v>17.05142002809714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81323771688285</v>
+        <v>20.67720244157113</v>
       </c>
       <c r="C7">
-        <v>11.61431929456936</v>
+        <v>14.91530671918357</v>
       </c>
       <c r="D7">
-        <v>8.97182739052311</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>3.094627723951189</v>
       </c>
       <c r="F7">
-        <v>56.66374987542314</v>
+        <v>22.51992815865725</v>
       </c>
       <c r="G7">
-        <v>2.073578595611747</v>
+        <v>2.062764119607737</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -643,40 +616,34 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>11.06713474187445</v>
-      </c>
-      <c r="M7">
-        <v>15.03573134309004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>11.25394680688794</v>
+      </c>
+      <c r="O7">
+        <v>17.23330753199054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93178129736835</v>
+        <v>22.80571294828933</v>
       </c>
       <c r="C8">
-        <v>12.82901433005266</v>
+        <v>16.38273952443899</v>
       </c>
       <c r="D8">
-        <v>9.591317183196674</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>3.037340691497301</v>
       </c>
       <c r="F8">
-        <v>61.81012488770812</v>
+        <v>23.97774725858816</v>
       </c>
       <c r="G8">
-        <v>2.053864685756876</v>
+        <v>2.051743036675163</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -684,40 +651,34 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>11.96226656585743</v>
-      </c>
-      <c r="M8">
-        <v>16.66886861639272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>10.94016009849916</v>
+      </c>
+      <c r="O8">
+        <v>18.0714700782635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.77881104517492</v>
+        <v>26.55251625268704</v>
       </c>
       <c r="C9">
-        <v>15.06053127836827</v>
+        <v>18.9713488119715</v>
       </c>
       <c r="D9">
-        <v>10.77545565899601</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>2.931610941423884</v>
       </c>
       <c r="F9">
-        <v>71.39135314294933</v>
+        <v>26.88037389750568</v>
       </c>
       <c r="G9">
-        <v>2.01566218405268</v>
+        <v>2.031088883223755</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -725,40 +686,34 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>13.66362981460162</v>
-      </c>
-      <c r="M9">
-        <v>19.62498951915342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>10.34666116520622</v>
+      </c>
+      <c r="O9">
+        <v>19.83643749756035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.45185311709681</v>
+        <v>29.05513681970658</v>
       </c>
       <c r="C10">
-        <v>16.63279161529127</v>
+        <v>20.70330768855571</v>
       </c>
       <c r="D10">
-        <v>11.63365238375916</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>2.858305747471076</v>
       </c>
       <c r="F10">
-        <v>78.17041575504608</v>
+        <v>29.02830090158469</v>
       </c>
       <c r="G10">
-        <v>1.987267889049878</v>
+        <v>2.016374860921578</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -766,40 +721,34 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>14.94202947389276</v>
-      </c>
-      <c r="M10">
-        <v>21.6714898583948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>9.921563485877611</v>
+      </c>
+      <c r="O10">
+        <v>21.20290709122671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.64422387821268</v>
+        <v>30.1417738546095</v>
       </c>
       <c r="C11">
-        <v>17.34051064750138</v>
+        <v>21.45593676808193</v>
       </c>
       <c r="D11">
-        <v>12.02404696280919</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>2.826033375285363</v>
       </c>
       <c r="F11">
-        <v>81.21641430538446</v>
+        <v>30.0078049833402</v>
       </c>
       <c r="G11">
-        <v>1.974107163274434</v>
+        <v>2.009750302703159</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -807,40 +756,34 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>15.5765267947929</v>
-      </c>
-      <c r="M11">
-        <v>22.58221358912047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>9.730006454019517</v>
+      </c>
+      <c r="O11">
+        <v>21.83936105904277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.09336477122964</v>
+        <v>30.546023288651</v>
       </c>
       <c r="C12">
-        <v>17.60817885265277</v>
+        <v>21.73601848021163</v>
       </c>
       <c r="D12">
-        <v>12.17217925462166</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>2.81398251634626</v>
       </c>
       <c r="F12">
-        <v>82.36657265106743</v>
+        <v>30.38435731138389</v>
       </c>
       <c r="G12">
-        <v>1.969070140238515</v>
+        <v>2.00724879897501</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -848,40 +791,34 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>15.81513454981869</v>
-      </c>
-      <c r="M12">
-        <v>22.92489543902065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>9.65768411495252</v>
+      </c>
+      <c r="O12">
+        <v>22.08252389791512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.99672176336484</v>
+        <v>30.45927916237552</v>
       </c>
       <c r="C13">
-        <v>17.55053256216016</v>
+        <v>21.67591431039818</v>
       </c>
       <c r="D13">
-        <v>12.14025734064326</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>2.816570029636606</v>
       </c>
       <c r="F13">
-        <v>82.11897142708773</v>
+        <v>30.29910066560707</v>
       </c>
       <c r="G13">
-        <v>1.970157660767511</v>
+        <v>2.007787276549791</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -889,40 +826,34 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>15.76381146696215</v>
-      </c>
-      <c r="M13">
-        <v>22.85117699844058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>9.673251159806185</v>
+      </c>
+      <c r="O13">
+        <v>22.0300579692549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.68121616362469</v>
+        <v>30.1751754312242</v>
       </c>
       <c r="C14">
-        <v>17.36253356558801</v>
+        <v>21.47907702230129</v>
       </c>
       <c r="D14">
-        <v>12.03622589211361</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>2.825038432498282</v>
       </c>
       <c r="F14">
-        <v>81.31109015139377</v>
+        <v>30.03834234670205</v>
       </c>
       <c r="G14">
-        <v>1.973693952605523</v>
+        <v>2.009544378107644</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -930,40 +861,34 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>15.59618746612942</v>
-      </c>
-      <c r="M14">
-        <v>22.61044543153292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>9.724052388463514</v>
+      </c>
+      <c r="O14">
+        <v>21.85932282867962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.48768316999378</v>
+        <v>30.00021798587061</v>
       </c>
       <c r="C15">
-        <v>17.24736100252419</v>
+        <v>21.35787203633874</v>
       </c>
       <c r="D15">
-        <v>11.9725528301035</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>2.830248246123033</v>
       </c>
       <c r="F15">
-        <v>80.81588416444865</v>
+        <v>29.87866831884913</v>
       </c>
       <c r="G15">
-        <v>1.975852475727796</v>
+        <v>2.010621485086511</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -971,40 +896,34 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>15.49331206795543</v>
-      </c>
-      <c r="M15">
-        <v>22.46272926460102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>9.755196366594598</v>
+      </c>
+      <c r="O15">
+        <v>21.75502411655378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.37353539264117</v>
+        <v>28.98309779183511</v>
       </c>
       <c r="C16">
-        <v>16.58644979543578</v>
+        <v>20.65342445980414</v>
       </c>
       <c r="D16">
-        <v>11.6081627429686</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>2.86043766968137</v>
       </c>
       <c r="F16">
-        <v>77.97076163835231</v>
+        <v>28.96433546222982</v>
       </c>
       <c r="G16">
-        <v>1.988121591879946</v>
+        <v>2.016808942581613</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1012,40 +931,34 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>14.90030310798559</v>
-      </c>
-      <c r="M16">
-        <v>21.61162293770312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>9.934114972849194</v>
+      </c>
+      <c r="O16">
+        <v>21.16161243044439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.68464935783601</v>
+        <v>28.34600310136082</v>
       </c>
       <c r="C17">
-        <v>16.17956241764779</v>
+        <v>20.21233993487175</v>
       </c>
       <c r="D17">
-        <v>11.38480717211015</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>2.879242797542281</v>
       </c>
       <c r="F17">
-        <v>76.21703172502599</v>
+        <v>28.40402003460697</v>
       </c>
       <c r="G17">
-        <v>1.995574005917199</v>
+        <v>2.020620475070793</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1053,40 +966,34 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>14.53301697153955</v>
-      </c>
-      <c r="M17">
-        <v>21.08478105850691</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>10.04431034782099</v>
+      </c>
+      <c r="O17">
+        <v>20.80137308438879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.28612660447828</v>
+        <v>27.97467190676218</v>
       </c>
       <c r="C18">
-        <v>15.94477129219253</v>
+        <v>19.95531246779801</v>
       </c>
       <c r="D18">
-        <v>11.25631626577478</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>2.890158990026465</v>
       </c>
       <c r="F18">
-        <v>75.20461269519421</v>
+        <v>28.08196207405918</v>
       </c>
       <c r="G18">
-        <v>1.999838763770901</v>
+        <v>2.022819442172289</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1094,40 +1001,34 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>14.34985289828427</v>
-      </c>
-      <c r="M18">
-        <v>20.77979975852971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>10.10786617027685</v>
+      </c>
+      <c r="O18">
+        <v>20.59556616410261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.15077227230056</v>
+        <v>27.84809922135699</v>
       </c>
       <c r="C19">
-        <v>15.86512422399668</v>
+        <v>19.86771171739789</v>
       </c>
       <c r="D19">
-        <v>11.21279979294909</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>2.893871794620288</v>
       </c>
       <c r="F19">
-        <v>74.86112990151476</v>
+        <v>27.97295761827318</v>
       </c>
       <c r="G19">
-        <v>2.001279508936467</v>
+        <v>2.023565202584519</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1135,40 +1036,34 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>14.28787292530608</v>
-      </c>
-      <c r="M19">
-        <v>20.6761827930128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>10.1294163938727</v>
+      </c>
+      <c r="O19">
+        <v>20.52612295228321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.7582131969097</v>
+        <v>28.41432763764213</v>
       </c>
       <c r="C20">
-        <v>16.22295004592636</v>
+        <v>20.2596374918173</v>
       </c>
       <c r="D20">
-        <v>11.40858420506144</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>2.877230513657861</v>
       </c>
       <c r="F20">
-        <v>76.40409055623495</v>
+        <v>28.46364390106324</v>
       </c>
       <c r="G20">
-        <v>1.994783046612241</v>
+        <v>2.020214059747428</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1176,40 +1071,34 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>14.57226008430419</v>
-      </c>
-      <c r="M20">
-        <v>21.14106193761156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>10.03256214327177</v>
+      </c>
+      <c r="O20">
+        <v>20.83957699994886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.77394334258349</v>
+        <v>30.25881817437001</v>
       </c>
       <c r="C21">
-        <v>17.41775553710762</v>
+        <v>21.53702526042597</v>
       </c>
       <c r="D21">
-        <v>12.06677153591854</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>2.822546298348026</v>
       </c>
       <c r="F21">
-        <v>81.54845383443759</v>
+        <v>30.11492326011907</v>
       </c>
       <c r="G21">
-        <v>1.972656871546143</v>
+        <v>2.009028107007237</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1217,40 +1106,34 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>15.6454635716348</v>
-      </c>
-      <c r="M21">
-        <v>22.68120703665453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>9.709125343899371</v>
+      </c>
+      <c r="O21">
+        <v>21.90941311897153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.07808696206557</v>
+        <v>31.42223343454547</v>
       </c>
       <c r="C22">
-        <v>18.19719174291993</v>
+        <v>22.34325890987088</v>
       </c>
       <c r="D22">
-        <v>12.49888038965326</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>2.787808411190499</v>
       </c>
       <c r="F22">
-        <v>84.8928413149943</v>
+        <v>31.30233198115387</v>
       </c>
       <c r="G22">
-        <v>1.957873537769879</v>
+        <v>2.001757115154807</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1258,40 +1141,34 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>16.33746927795626</v>
-      </c>
-      <c r="M22">
-        <v>23.67547418162528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>9.498978142189189</v>
+      </c>
+      <c r="O22">
+        <v>22.66802189983396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.38285794025992</v>
+        <v>30.80506991053696</v>
       </c>
       <c r="C23">
-        <v>17.78102798867275</v>
+        <v>21.91552247266185</v>
       </c>
       <c r="D23">
-        <v>12.26795497219668</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>2.806250720288728</v>
       </c>
       <c r="F23">
-        <v>83.10863084808884</v>
+        <v>30.65439657016156</v>
       </c>
       <c r="G23">
-        <v>1.965800365128576</v>
+        <v>2.005635171504148</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1299,40 +1176,34 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>15.96880932273123</v>
-      </c>
-      <c r="M23">
-        <v>23.14566032719387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>9.611040018691096</v>
+      </c>
+      <c r="O23">
+        <v>22.24013463587994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.72496276139699</v>
+        <v>28.38345388213522</v>
       </c>
       <c r="C24">
-        <v>16.20333725135001</v>
+        <v>20.23826499852353</v>
       </c>
       <c r="D24">
-        <v>11.39783488155345</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>2.87813994165456</v>
       </c>
       <c r="F24">
-        <v>76.31953442094337</v>
+        <v>28.43668771771324</v>
       </c>
       <c r="G24">
-        <v>1.995140699459384</v>
+        <v>2.020397776025971</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1340,40 +1211,34 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>14.55452305881843</v>
-      </c>
-      <c r="M24">
-        <v>21.1156239233831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>10.03787287069756</v>
+      </c>
+      <c r="O24">
+        <v>20.82230096283432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.76783395856838</v>
+        <v>25.58361926807116</v>
       </c>
       <c r="C25">
-        <v>14.47069662157717</v>
+        <v>18.30139599098835</v>
       </c>
       <c r="D25">
-        <v>10.4578513972641</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>2.959478411476256</v>
       </c>
       <c r="F25">
-        <v>68.85000620447246</v>
+        <v>26.09186359371135</v>
       </c>
       <c r="G25">
-        <v>2.026004258718292</v>
+        <v>2.036585871113408</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1381,17 +1246,14 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>13.20882064577442</v>
-      </c>
-      <c r="M25">
-        <v>18.84933411693251</v>
+      <c r="N25">
+        <v>10.50511829450418</v>
+      </c>
+      <c r="O25">
+        <v>19.34649344616671</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
@@ -421,34 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.35316251612488</v>
+        <v>13.81121820502896</v>
       </c>
       <c r="C2">
-        <v>16.76057254315075</v>
+        <v>6.232582595970726</v>
       </c>
       <c r="D2">
-        <v>3.022257733401961</v>
+        <v>5.959558819367644</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>24.37627759458863</v>
+        <v>23.53032951400863</v>
       </c>
       <c r="G2">
-        <v>2.048825917501766</v>
+        <v>2.11288289291323</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.59584064508877</v>
+      </c>
+      <c r="J2">
+        <v>5.988797558018645</v>
       </c>
       <c r="K2">
+        <v>10.98175311461211</v>
+      </c>
+      <c r="L2">
+        <v>7.483221316525164</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.85670130077282</v>
+        <v>13.20758064534714</v>
       </c>
       <c r="O2">
-        <v>18.30697971529774</v>
+        <v>17.26161873822633</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.73275639994748</v>
+        <v>12.97870413943426</v>
       </c>
       <c r="C3">
-        <v>15.64268344395051</v>
+        <v>6.088476891968077</v>
       </c>
       <c r="D3">
-        <v>3.066495981417139</v>
+        <v>5.765693604873193</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22414016721417</v>
+        <v>23.37610898500409</v>
       </c>
       <c r="G3">
-        <v>2.057362081699766</v>
+        <v>2.117222622035123</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.71429655750073</v>
+      </c>
+      <c r="J3">
+        <v>6.024602246341397</v>
       </c>
       <c r="K3">
+        <v>10.30135644258119</v>
+      </c>
+      <c r="L3">
+        <v>7.32790336237781</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.10046970433141</v>
+        <v>13.39456271137592</v>
       </c>
       <c r="O3">
-        <v>17.63328963935804</v>
+        <v>17.29136449728238</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.68310217523587</v>
+        <v>12.4427338385575</v>
       </c>
       <c r="C4">
-        <v>14.919370145769</v>
+        <v>5.998021397625167</v>
       </c>
       <c r="D4">
-        <v>3.094472058996622</v>
+        <v>5.645426656582933</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>22.52375792646101</v>
+        <v>23.29739293109168</v>
       </c>
       <c r="G4">
-        <v>2.062734270930922</v>
+        <v>2.119976720910336</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.79689197669522</v>
+      </c>
+      <c r="J4">
+        <v>6.048179540416266</v>
       </c>
       <c r="K4">
+        <v>9.859955640781049</v>
+      </c>
+      <c r="L4">
+        <v>7.233804731446268</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.25310068459675</v>
+        <v>13.5121140038146</v>
       </c>
       <c r="O4">
-        <v>17.23545558885326</v>
+        <v>17.321186277247</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.24145343888953</v>
+        <v>12.21822233494232</v>
       </c>
       <c r="C5">
-        <v>14.61525397888039</v>
+        <v>5.960688807098905</v>
       </c>
       <c r="D5">
-        <v>3.106075167387027</v>
+        <v>5.596181503360171</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>22.24045175409164</v>
+        <v>23.26925390534574</v>
       </c>
       <c r="G5">
-        <v>2.064958058697808</v>
+        <v>2.121121935547616</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.83295078442205</v>
+      </c>
+      <c r="J5">
+        <v>6.058184673348619</v>
       </c>
       <c r="K5">
+        <v>9.674149344185057</v>
+      </c>
+      <c r="L5">
+        <v>7.195822185501067</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.31607655127293</v>
+        <v>13.56072430577801</v>
       </c>
       <c r="O5">
-        <v>17.07741354471919</v>
+        <v>17.33615077833883</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.1672739256214</v>
+        <v>12.18057871734951</v>
       </c>
       <c r="C6">
-        <v>14.56418840970043</v>
+        <v>5.95446206767805</v>
       </c>
       <c r="D6">
-        <v>3.108014055578024</v>
+        <v>5.587992450204194</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>22.19354682394526</v>
+        <v>23.26481685666891</v>
       </c>
       <c r="G6">
-        <v>2.065329451478797</v>
+        <v>2.121313491767609</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.83908104113346</v>
+      </c>
+      <c r="J6">
+        <v>6.059869912306088</v>
       </c>
       <c r="K6">
+        <v>9.642938599252728</v>
+      </c>
+      <c r="L6">
+        <v>7.189538471410409</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.32658157788685</v>
+        <v>13.56883921613717</v>
       </c>
       <c r="O6">
-        <v>17.05142002809714</v>
+        <v>17.33880270057519</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.67720244157113</v>
+        <v>12.4397304857083</v>
       </c>
       <c r="C7">
-        <v>14.91530671918357</v>
+        <v>5.997519790736018</v>
       </c>
       <c r="D7">
-        <v>3.094627723951189</v>
+        <v>5.644763369809875</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>22.51992815865725</v>
+        <v>23.29699760168278</v>
       </c>
       <c r="G7">
-        <v>2.062764119607737</v>
+        <v>2.119992072453735</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.79736866161882</v>
+      </c>
+      <c r="J7">
+        <v>6.048312869235696</v>
       </c>
       <c r="K7">
+        <v>9.85747378831903</v>
+      </c>
+      <c r="L7">
+        <v>7.233290954881276</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.25394680688794</v>
+        <v>13.512766693493</v>
       </c>
       <c r="O7">
-        <v>17.23330753199054</v>
+        <v>17.32137683295023</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.80571294828933</v>
+        <v>13.52938746660496</v>
       </c>
       <c r="C8">
-        <v>16.38273952443899</v>
+        <v>6.183319139132615</v>
       </c>
       <c r="D8">
-        <v>3.037340691497301</v>
+        <v>5.893013077172437</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>23.97774725858816</v>
+        <v>23.47379337169023</v>
       </c>
       <c r="G8">
-        <v>2.051743036675163</v>
+        <v>2.114360900715867</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.63458825674053</v>
+      </c>
+      <c r="J8">
+        <v>6.000810265968522</v>
       </c>
       <c r="K8">
+        <v>10.7520614634771</v>
+      </c>
+      <c r="L8">
+        <v>7.429431431505009</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.94016009849916</v>
+        <v>13.27149328933677</v>
       </c>
       <c r="O8">
-        <v>18.0714700782635</v>
+        <v>17.26941937443996</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.55251625268704</v>
+        <v>15.46495983922077</v>
       </c>
       <c r="C9">
-        <v>18.9713488119715</v>
+        <v>6.531009081627305</v>
       </c>
       <c r="D9">
-        <v>2.931610941423884</v>
+        <v>6.367056468169278</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>26.88037389750568</v>
+        <v>23.95039149369632</v>
       </c>
       <c r="G9">
-        <v>2.031088883223755</v>
+        <v>2.104009549886017</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.39737154643271</v>
+      </c>
+      <c r="J9">
+        <v>5.920461094406199</v>
       </c>
       <c r="K9">
+        <v>12.31879185302363</v>
+      </c>
+      <c r="L9">
+        <v>7.822182359739892</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.34666116520622</v>
+        <v>12.81930108531887</v>
       </c>
       <c r="O9">
-        <v>19.83643749756035</v>
+        <v>17.26346892676233</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.05513681970658</v>
+        <v>16.83469442377977</v>
       </c>
       <c r="C10">
-        <v>20.70330768855571</v>
+        <v>6.775119664411545</v>
       </c>
       <c r="D10">
-        <v>2.858305747471076</v>
+        <v>6.703972389798897</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>29.02830090158469</v>
+        <v>24.3834920987302</v>
       </c>
       <c r="G10">
-        <v>2.016374860921578</v>
+        <v>2.096798580939227</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.27845948806759</v>
+      </c>
+      <c r="J10">
+        <v>5.869475578629868</v>
       </c>
       <c r="K10">
+        <v>13.35604178393467</v>
+      </c>
+      <c r="L10">
+        <v>8.113188877580939</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.921563485877611</v>
+        <v>12.49863180983732</v>
       </c>
       <c r="O10">
-        <v>21.20290709122671</v>
+        <v>17.32336926651119</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.1417738546095</v>
+        <v>17.43616303245544</v>
       </c>
       <c r="C11">
-        <v>21.45593676808193</v>
+        <v>6.883505676750794</v>
       </c>
       <c r="D11">
-        <v>2.826033375285363</v>
+        <v>6.854144020163632</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>30.0078049833402</v>
+        <v>24.59917719874845</v>
       </c>
       <c r="G11">
-        <v>2.009750302703159</v>
+        <v>2.093597389719316</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.23762270863277</v>
+      </c>
+      <c r="J11">
+        <v>5.84808660432101</v>
       </c>
       <c r="K11">
+        <v>13.80342326363713</v>
+      </c>
+      <c r="L11">
+        <v>8.245616593480696</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.730006454019517</v>
+        <v>12.35497866487213</v>
       </c>
       <c r="O11">
-        <v>21.83936105904277</v>
+        <v>17.36580603115631</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.546023288651</v>
+        <v>17.65907164168609</v>
       </c>
       <c r="C12">
-        <v>21.73601848021163</v>
+        <v>6.924151756012679</v>
       </c>
       <c r="D12">
-        <v>2.81398251634626</v>
+        <v>6.910520685781249</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>30.38435731138389</v>
+        <v>24.68357771254625</v>
       </c>
       <c r="G12">
-        <v>2.00724879897501</v>
+        <v>2.092396014128977</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.22417249177827</v>
+      </c>
+      <c r="J12">
+        <v>5.840252001701289</v>
       </c>
       <c r="K12">
+        <v>13.96933961826811</v>
+      </c>
+      <c r="L12">
+        <v>8.29573258856872</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.65768411495252</v>
+        <v>12.30087609039525</v>
       </c>
       <c r="O12">
-        <v>22.08252389791512</v>
+        <v>17.38415935663611</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.45927916237552</v>
+        <v>17.61127942842709</v>
       </c>
       <c r="C13">
-        <v>21.67591431039818</v>
+        <v>6.915415776996026</v>
       </c>
       <c r="D13">
-        <v>2.816570029636606</v>
+        <v>6.898401417164177</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>30.29910066560707</v>
+        <v>24.66527875382783</v>
       </c>
       <c r="G13">
-        <v>2.007787276549791</v>
+        <v>2.092654278236215</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.22697791961537</v>
+      </c>
+      <c r="J13">
+        <v>5.841927449553156</v>
       </c>
       <c r="K13">
+        <v>13.93376172822179</v>
+      </c>
+      <c r="L13">
+        <v>8.284941192325844</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.673251159806185</v>
+        <v>12.3125152841856</v>
       </c>
       <c r="O13">
-        <v>22.0300579692549</v>
+        <v>17.38010351177661</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.1751754312242</v>
+        <v>17.45459887598978</v>
       </c>
       <c r="C14">
-        <v>21.47907702230129</v>
+        <v>6.886857693527245</v>
       </c>
       <c r="D14">
-        <v>2.825038432498282</v>
+        <v>6.858792222745428</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>30.03834234670205</v>
+        <v>24.60606604738275</v>
       </c>
       <c r="G14">
-        <v>2.009544378107644</v>
+        <v>2.093498337597812</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.23647516227973</v>
+      </c>
+      <c r="J14">
+        <v>5.847436704540826</v>
       </c>
       <c r="K14">
+        <v>13.81714325818012</v>
+      </c>
+      <c r="L14">
+        <v>8.249740507027063</v>
+      </c>
+      <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.724052388463514</v>
+        <v>12.35052182609386</v>
       </c>
       <c r="O14">
-        <v>21.85932282867962</v>
+        <v>17.36726964116257</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.00021798587061</v>
+        <v>17.35799672847542</v>
       </c>
       <c r="C15">
-        <v>21.35787203633874</v>
+        <v>6.869312899679623</v>
       </c>
       <c r="D15">
-        <v>2.830248246123033</v>
+        <v>6.834465381607642</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>29.87866831884913</v>
+        <v>24.57015258111583</v>
       </c>
       <c r="G15">
-        <v>2.010621485086511</v>
+        <v>2.094016744565014</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.24255800917846</v>
+      </c>
+      <c r="J15">
+        <v>5.850845953168923</v>
       </c>
       <c r="K15">
+        <v>13.74525632053506</v>
+      </c>
+      <c r="L15">
+        <v>8.228173880521398</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.755196366594598</v>
+        <v>12.37383972319307</v>
       </c>
       <c r="O15">
-        <v>21.75502411655378</v>
+        <v>17.35970882859068</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.98309779183511</v>
+        <v>16.79470513708215</v>
       </c>
       <c r="C16">
-        <v>20.65342445980414</v>
+        <v>6.767981526825784</v>
       </c>
       <c r="D16">
-        <v>2.86043766968137</v>
+        <v>6.694092073748193</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>28.96433546222982</v>
+        <v>24.36977582824381</v>
       </c>
       <c r="G16">
-        <v>2.016808942581613</v>
+        <v>2.097009333603143</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.28140412530281</v>
+      </c>
+      <c r="J16">
+        <v>5.870910167543844</v>
       </c>
       <c r="K16">
+        <v>13.32631371110165</v>
+      </c>
+      <c r="L16">
+        <v>8.104532026602767</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.934114972849194</v>
+        <v>12.50806258243619</v>
       </c>
       <c r="O16">
-        <v>21.16161243044439</v>
+        <v>17.32091006913397</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.34600310136082</v>
+        <v>16.4404469911362</v>
       </c>
       <c r="C17">
-        <v>20.21233993487175</v>
+        <v>6.705125252591115</v>
       </c>
       <c r="D17">
-        <v>2.879242797542281</v>
+        <v>6.607151279805744</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>28.40402003460697</v>
+        <v>24.25166314599836</v>
       </c>
       <c r="G17">
-        <v>2.020620475070793</v>
+        <v>2.0988650846752</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.3087055622109</v>
+      </c>
+      <c r="J17">
+        <v>5.883684860969248</v>
       </c>
       <c r="K17">
+        <v>13.06305288683018</v>
+      </c>
+      <c r="L17">
+        <v>8.028665718372265</v>
+      </c>
+      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.04431034782099</v>
+        <v>12.59095639553983</v>
       </c>
       <c r="O17">
-        <v>20.80137308438879</v>
+        <v>17.30106936051187</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.97467190676218</v>
+        <v>16.23347600198347</v>
       </c>
       <c r="C18">
-        <v>19.95531246779801</v>
+        <v>6.668722241541632</v>
       </c>
       <c r="D18">
-        <v>2.890158990026465</v>
+        <v>6.556856422355353</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>28.08196207405918</v>
+        <v>24.18548270124793</v>
       </c>
       <c r="G18">
-        <v>2.022819442172289</v>
+        <v>2.099939943674679</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.32564975058855</v>
+      </c>
+      <c r="J18">
+        <v>5.891202035060799</v>
       </c>
       <c r="K18">
+        <v>12.90932758275939</v>
+      </c>
+      <c r="L18">
+        <v>7.98503600513579</v>
+      </c>
+      <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.10786617027685</v>
+        <v>12.63884525634317</v>
       </c>
       <c r="O18">
-        <v>20.59556616410261</v>
+        <v>17.29108117263621</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.84809922135699</v>
+        <v>16.16284627489459</v>
       </c>
       <c r="C19">
-        <v>19.86771171739789</v>
+        <v>6.656354399016454</v>
       </c>
       <c r="D19">
-        <v>2.893871794620288</v>
+        <v>6.539779320475482</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>27.97295761827318</v>
+        <v>24.16337517921187</v>
       </c>
       <c r="G19">
-        <v>2.023565202584519</v>
+        <v>2.100305172873477</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.3315967169956</v>
+      </c>
+      <c r="J19">
+        <v>5.893776174827937</v>
       </c>
       <c r="K19">
+        <v>12.85688242593386</v>
+      </c>
+      <c r="L19">
+        <v>7.970266078912186</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.1294163938727</v>
+        <v>12.65509645921128</v>
       </c>
       <c r="O19">
-        <v>20.52612295228321</v>
+        <v>17.28794081057341</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.41432763764213</v>
+        <v>16.47849037509232</v>
       </c>
       <c r="C20">
-        <v>20.2596374918173</v>
+        <v>6.711842371646107</v>
       </c>
       <c r="D20">
-        <v>2.877230513657861</v>
+        <v>6.616436513413306</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>28.46364390106324</v>
+        <v>24.26405450493812</v>
       </c>
       <c r="G20">
-        <v>2.020214059747428</v>
+        <v>2.09866676639944</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.30567006034754</v>
+      </c>
+      <c r="J20">
+        <v>5.882307391419221</v>
       </c>
       <c r="K20">
+        <v>13.09131583032048</v>
+      </c>
+      <c r="L20">
+        <v>8.036741422164122</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.03256214327177</v>
+        <v>12.58211058527528</v>
       </c>
       <c r="O20">
-        <v>20.83957699994886</v>
+        <v>17.303033370074</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.25881817437001</v>
+        <v>17.50075112163214</v>
       </c>
       <c r="C21">
-        <v>21.53702526042597</v>
+        <v>6.895256784419752</v>
       </c>
       <c r="D21">
-        <v>2.822546298348026</v>
+        <v>6.870440035604759</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>30.11492326011907</v>
+        <v>24.62338399393258</v>
       </c>
       <c r="G21">
-        <v>2.009028107007237</v>
+        <v>2.09325012691715</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.23363006222286</v>
+      </c>
+      <c r="J21">
+        <v>5.845811267164643</v>
       </c>
       <c r="K21">
+        <v>13.85149165764031</v>
+      </c>
+      <c r="L21">
+        <v>8.260080947455716</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.709125343899371</v>
+        <v>12.3393505514837</v>
       </c>
       <c r="O21">
-        <v>21.90941311897153</v>
+        <v>17.37097650125069</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.42223343454547</v>
+        <v>18.14058465661087</v>
       </c>
       <c r="C22">
-        <v>22.34325890987088</v>
+        <v>7.012807473322318</v>
       </c>
       <c r="D22">
-        <v>2.787808411190499</v>
+        <v>7.03357257951162</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>31.30233198115387</v>
+        <v>24.8741264602209</v>
       </c>
       <c r="G22">
-        <v>2.001757115154807</v>
+        <v>2.08977299150487</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.19833829995236</v>
+      </c>
+      <c r="J22">
+        <v>5.823506010640642</v>
       </c>
       <c r="K22">
+        <v>14.32793794777941</v>
+      </c>
+      <c r="L22">
+        <v>8.405846955672777</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.498978142189189</v>
+        <v>12.18240479683888</v>
       </c>
       <c r="O22">
-        <v>22.66802189983396</v>
+        <v>17.42873619091129</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.80506991053696</v>
+        <v>17.80166458670018</v>
       </c>
       <c r="C23">
-        <v>21.91552247266185</v>
+        <v>6.950285100997486</v>
       </c>
       <c r="D23">
-        <v>2.806250720288728</v>
+        <v>6.946782051537177</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>30.65439657016156</v>
+        <v>24.73883355725341</v>
       </c>
       <c r="G23">
-        <v>2.005635171504148</v>
+        <v>2.091623227013773</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.2160588130434</v>
+      </c>
+      <c r="J23">
+        <v>5.835267287836292</v>
       </c>
       <c r="K23">
+        <v>14.0755057212468</v>
+      </c>
+      <c r="L23">
+        <v>8.328079013808392</v>
+      </c>
+      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.611040018691096</v>
+        <v>12.26602120432069</v>
       </c>
       <c r="O23">
-        <v>22.24013463587994</v>
+        <v>17.3966542351421</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.38345388213522</v>
+        <v>16.46130125365427</v>
       </c>
       <c r="C24">
-        <v>20.23826499852353</v>
+        <v>6.70880638982686</v>
       </c>
       <c r="D24">
-        <v>2.87813994165456</v>
+        <v>6.612239625854753</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>28.43668771771324</v>
+        <v>24.25844700452785</v>
       </c>
       <c r="G24">
-        <v>2.020397776025971</v>
+        <v>2.098756401249091</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.30703853087585</v>
+      </c>
+      <c r="J24">
+        <v>5.882929607474463</v>
       </c>
       <c r="K24">
+        <v>13.07854554696809</v>
+      </c>
+      <c r="L24">
+        <v>8.033090434534083</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.03787287069756</v>
+        <v>12.58610905137533</v>
       </c>
       <c r="O24">
-        <v>20.82230096283432</v>
+        <v>17.30214103058906</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.58361926807116</v>
+        <v>14.96339039916113</v>
       </c>
       <c r="C25">
-        <v>18.30139599098835</v>
+        <v>6.438863607654191</v>
       </c>
       <c r="D25">
-        <v>2.959478411476256</v>
+        <v>6.240575571300504</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>26.09186359371135</v>
+        <v>23.80713439118967</v>
       </c>
       <c r="G25">
-        <v>2.036585871113408</v>
+        <v>2.106738592883527</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.45222555988981</v>
+      </c>
+      <c r="J25">
+        <v>5.940803138160732</v>
       </c>
       <c r="K25">
+        <v>11.91499901048247</v>
+      </c>
+      <c r="L25">
+        <v>7.715327652768611</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.50511829450418</v>
+        <v>12.93951044410312</v>
       </c>
       <c r="O25">
-        <v>19.34649344616671</v>
+        <v>17.25420938475583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.81121820502896</v>
+        <v>13.91136961125256</v>
       </c>
       <c r="C2">
-        <v>6.232582595970726</v>
+        <v>6.981614341490489</v>
       </c>
       <c r="D2">
-        <v>5.959558819367644</v>
+        <v>8.659868089277644</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.53032951400863</v>
+        <v>35.90727507867637</v>
       </c>
       <c r="G2">
-        <v>2.11288289291323</v>
+        <v>3.679343829455548</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.59584064508877</v>
+        <v>26.85813808949183</v>
       </c>
       <c r="J2">
-        <v>5.988797558018645</v>
+        <v>10.39582709252655</v>
       </c>
       <c r="K2">
-        <v>10.98175311461211</v>
+        <v>10.94225883034519</v>
       </c>
       <c r="L2">
-        <v>7.483221316525164</v>
+        <v>11.75630123777942</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.20758064534714</v>
+        <v>20.38629481309523</v>
       </c>
       <c r="O2">
-        <v>17.26161873822633</v>
+        <v>27.39613999250987</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.97870413943426</v>
+        <v>13.70839579162905</v>
       </c>
       <c r="C3">
-        <v>6.088476891968077</v>
+        <v>6.936448089446534</v>
       </c>
       <c r="D3">
-        <v>5.765693604873193</v>
+        <v>8.64172854694894</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.37610898500409</v>
+        <v>35.98326052489513</v>
       </c>
       <c r="G3">
-        <v>2.117222622035123</v>
+        <v>3.681032852521445</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.71429655750073</v>
+        <v>26.94406105946747</v>
       </c>
       <c r="J3">
-        <v>6.024602246341397</v>
+        <v>10.41596661498348</v>
       </c>
       <c r="K3">
-        <v>10.30135644258119</v>
+        <v>10.80001463511535</v>
       </c>
       <c r="L3">
-        <v>7.32790336237781</v>
+        <v>11.7535638622998</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.39456271137592</v>
+        <v>20.44359653323766</v>
       </c>
       <c r="O3">
-        <v>17.29136449728238</v>
+        <v>27.47388480070775</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.4427338385575</v>
+        <v>13.58456563137349</v>
       </c>
       <c r="C4">
-        <v>5.998021397625167</v>
+        <v>6.908180257908715</v>
       </c>
       <c r="D4">
-        <v>5.645426656582933</v>
+        <v>8.631798343173685</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.29739293109168</v>
+        <v>36.03670866526616</v>
       </c>
       <c r="G4">
-        <v>2.119976720910336</v>
+        <v>3.682125962166448</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.79689197669522</v>
+        <v>27.0009468454777</v>
       </c>
       <c r="J4">
-        <v>6.048179540416266</v>
+        <v>10.42916497538205</v>
       </c>
       <c r="K4">
-        <v>9.859955640781049</v>
+        <v>10.71338430006119</v>
       </c>
       <c r="L4">
-        <v>7.233804731446268</v>
+        <v>11.75342990457175</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.5121140038146</v>
+        <v>20.48044839138423</v>
       </c>
       <c r="O4">
-        <v>17.321186277247</v>
+        <v>27.52626241795823</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21822233494232</v>
+        <v>13.53436474690903</v>
       </c>
       <c r="C5">
-        <v>5.960688807098905</v>
+        <v>6.896529907763189</v>
       </c>
       <c r="D5">
-        <v>5.596181503360171</v>
+        <v>8.628058406535445</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.26925390534574</v>
+        <v>36.06019588540175</v>
       </c>
       <c r="G5">
-        <v>2.121121935547616</v>
+        <v>3.68258554830043</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.83295078442205</v>
+        <v>27.02516658752718</v>
       </c>
       <c r="J5">
-        <v>6.058184673348619</v>
+        <v>10.43475323770334</v>
       </c>
       <c r="K5">
-        <v>9.674149344185057</v>
+        <v>10.67829899148495</v>
       </c>
       <c r="L5">
-        <v>7.195822185501067</v>
+        <v>11.75376574503383</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.56072430577801</v>
+        <v>20.49588655139375</v>
       </c>
       <c r="O5">
-        <v>17.33615077833883</v>
+        <v>27.54877331294812</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.18057871734951</v>
+        <v>13.52604645710725</v>
       </c>
       <c r="C6">
-        <v>5.95446206767805</v>
+        <v>6.894587573293776</v>
       </c>
       <c r="D6">
-        <v>5.587992450204194</v>
+        <v>8.62745600202533</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.26481685666891</v>
+        <v>36.06419895219889</v>
       </c>
       <c r="G6">
-        <v>2.121313491767609</v>
+        <v>3.682662717209504</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.83908104113346</v>
+        <v>27.02925097296477</v>
       </c>
       <c r="J6">
-        <v>6.059869912306088</v>
+        <v>10.43569385065227</v>
       </c>
       <c r="K6">
-        <v>9.642938599252728</v>
+        <v>10.67248736494763</v>
       </c>
       <c r="L6">
-        <v>7.189538471410409</v>
+        <v>11.75384513253643</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.56883921613717</v>
+        <v>20.49847549249932</v>
       </c>
       <c r="O6">
-        <v>17.33880270057519</v>
+        <v>27.55258166846299</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.4397304857083</v>
+        <v>13.58388746822095</v>
       </c>
       <c r="C7">
-        <v>5.997519790736018</v>
+        <v>6.908023662654483</v>
       </c>
       <c r="D7">
-        <v>5.644763369809875</v>
+        <v>8.631746659371728</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.29699760168278</v>
+        <v>36.03701851397483</v>
       </c>
       <c r="G7">
-        <v>2.119992072453735</v>
+        <v>3.682132103016817</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.79736866161882</v>
+        <v>27.00126927710204</v>
       </c>
       <c r="J7">
-        <v>6.048312869235696</v>
+        <v>10.42923949046623</v>
       </c>
       <c r="K7">
-        <v>9.85747378831903</v>
+        <v>10.71291019606398</v>
       </c>
       <c r="L7">
-        <v>7.233290954881276</v>
+        <v>11.75343285114709</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.512766693493</v>
+        <v>20.48065489069838</v>
       </c>
       <c r="O7">
-        <v>17.32137683295023</v>
+        <v>27.52656128521133</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.52938746660496</v>
+        <v>13.84125523990152</v>
       </c>
       <c r="C8">
-        <v>6.183319139132615</v>
+        <v>6.966154383127029</v>
       </c>
       <c r="D8">
-        <v>5.893013077172437</v>
+        <v>8.653364841794183</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.47379337169023</v>
+        <v>35.93206423645744</v>
       </c>
       <c r="G8">
-        <v>2.114360900715867</v>
+        <v>3.679914598694308</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.63458825674053</v>
+        <v>26.88690748422499</v>
       </c>
       <c r="J8">
-        <v>6.000810265968522</v>
+        <v>10.40259866559775</v>
       </c>
       <c r="K8">
-        <v>10.7520614634771</v>
+        <v>10.8930896042223</v>
       </c>
       <c r="L8">
-        <v>7.429431431505009</v>
+        <v>11.75503727223867</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.27149328933677</v>
+        <v>20.40570690343543</v>
       </c>
       <c r="O8">
-        <v>17.26941937443996</v>
+        <v>27.42198256627653</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.46495983922077</v>
+        <v>14.34962299821024</v>
       </c>
       <c r="C9">
-        <v>6.531009081627305</v>
+        <v>7.075739609927647</v>
       </c>
       <c r="D9">
-        <v>6.367056468169278</v>
+        <v>8.705196931393292</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.95039149369632</v>
+        <v>35.78020239064401</v>
       </c>
       <c r="G9">
-        <v>2.104009549886017</v>
+        <v>3.676008805297509</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.39737154643271</v>
+        <v>26.69539852615581</v>
       </c>
       <c r="J9">
-        <v>5.920461094406199</v>
+        <v>10.35694200638184</v>
       </c>
       <c r="K9">
-        <v>12.31879185302363</v>
+        <v>11.25031593986738</v>
       </c>
       <c r="L9">
-        <v>7.822182359739892</v>
+        <v>11.77038778865523</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.81930108531887</v>
+        <v>20.27191608097911</v>
       </c>
       <c r="O9">
-        <v>17.26346892676233</v>
+        <v>27.25376509478324</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.83469442377977</v>
+        <v>14.7218571949703</v>
       </c>
       <c r="C10">
-        <v>6.775119664411545</v>
+        <v>7.153354863900767</v>
       </c>
       <c r="D10">
-        <v>6.703972389798897</v>
+        <v>8.748829417219758</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.3834920987302</v>
+        <v>35.70158424094242</v>
       </c>
       <c r="G10">
-        <v>2.096798580939227</v>
+        <v>3.673406391709079</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.27845948806759</v>
+        <v>26.57465685482084</v>
       </c>
       <c r="J10">
-        <v>5.869475578629868</v>
+        <v>10.32738480572525</v>
       </c>
       <c r="K10">
-        <v>13.35604178393467</v>
+        <v>11.51285035658728</v>
       </c>
       <c r="L10">
-        <v>8.113188877580939</v>
+        <v>11.78900716933601</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.49863180983732</v>
+        <v>20.18157661377062</v>
       </c>
       <c r="O10">
-        <v>17.32336926651119</v>
+        <v>27.15268486217098</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.43616303245544</v>
+        <v>14.89020307873332</v>
       </c>
       <c r="C11">
-        <v>6.883505676750794</v>
+        <v>7.187991187251966</v>
       </c>
       <c r="D11">
-        <v>6.854144020163632</v>
+        <v>8.769837083436206</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.59917719874845</v>
+        <v>35.67298236692418</v>
       </c>
       <c r="G11">
-        <v>2.093597389719316</v>
+        <v>3.672279921516101</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.23762270863277</v>
+        <v>26.5240609534031</v>
       </c>
       <c r="J11">
-        <v>5.84808660432101</v>
+        <v>10.31479819954526</v>
       </c>
       <c r="K11">
-        <v>13.80342326363713</v>
+        <v>11.63182500453523</v>
       </c>
       <c r="L11">
-        <v>8.245616593480696</v>
+        <v>11.79904794257799</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.35497866487213</v>
+        <v>20.14218962742365</v>
       </c>
       <c r="O11">
-        <v>17.36580603115631</v>
+        <v>27.1115955490005</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.65907164168609</v>
+        <v>14.95375186477323</v>
       </c>
       <c r="C12">
-        <v>6.924151756012679</v>
+        <v>7.201006820069772</v>
       </c>
       <c r="D12">
-        <v>6.910520685781249</v>
+        <v>8.777954476880282</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.68357771254625</v>
+        <v>35.66318151059627</v>
       </c>
       <c r="G12">
-        <v>2.092396014128977</v>
+        <v>3.671861564077904</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.22417249177827</v>
+        <v>26.50552423268855</v>
       </c>
       <c r="J12">
-        <v>5.840252001701289</v>
+        <v>10.31015506317778</v>
       </c>
       <c r="K12">
-        <v>13.96933961826811</v>
+        <v>11.67677368573119</v>
       </c>
       <c r="L12">
-        <v>8.29573258856872</v>
+        <v>11.80307371724642</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.30087609039525</v>
+        <v>20.12751928960585</v>
       </c>
       <c r="O12">
-        <v>17.38415935663611</v>
+        <v>27.09674015437534</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.61127942842709</v>
+        <v>14.94007530648635</v>
       </c>
       <c r="C13">
-        <v>6.915415776996026</v>
+        <v>7.198208196644925</v>
       </c>
       <c r="D13">
-        <v>6.898401417164177</v>
+        <v>8.776199107345342</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.66527875382783</v>
+        <v>35.66524648930944</v>
       </c>
       <c r="G13">
-        <v>2.092654278236215</v>
+        <v>3.671951300206158</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.22697791961537</v>
+        <v>26.50948874280485</v>
       </c>
       <c r="J13">
-        <v>5.841927449553156</v>
+        <v>10.31114957541604</v>
       </c>
       <c r="K13">
-        <v>13.93376172822179</v>
+        <v>11.66709844006621</v>
       </c>
       <c r="L13">
-        <v>8.284941192325844</v>
+        <v>11.80219679049895</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.3125152841856</v>
+        <v>20.13066794509928</v>
       </c>
       <c r="O13">
-        <v>17.38010351177661</v>
+        <v>27.09990819811882</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.45459887598978</v>
+        <v>14.89543561417428</v>
       </c>
       <c r="C14">
-        <v>6.886857693527245</v>
+        <v>7.18906402516373</v>
       </c>
       <c r="D14">
-        <v>6.858792222745428</v>
+        <v>8.770501680592725</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.60606604738275</v>
+        <v>35.67215540098287</v>
       </c>
       <c r="G14">
-        <v>2.093498337597812</v>
+        <v>3.672245338630899</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.23647516227973</v>
+        <v>26.52252344234003</v>
       </c>
       <c r="J14">
-        <v>5.847436704540826</v>
+        <v>10.31441374033339</v>
       </c>
       <c r="K14">
-        <v>13.81714325818012</v>
+        <v>11.63552527321696</v>
       </c>
       <c r="L14">
-        <v>8.249740507027063</v>
+        <v>11.79937467894063</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.35052182609386</v>
+        <v>20.14097779270107</v>
       </c>
       <c r="O14">
-        <v>17.36726964116257</v>
+        <v>27.11035926911369</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.35799672847542</v>
+        <v>14.86806474963009</v>
       </c>
       <c r="C15">
-        <v>6.869312899679623</v>
+        <v>7.183449768259237</v>
       </c>
       <c r="D15">
-        <v>6.834465381607642</v>
+        <v>8.767032837124274</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.57015258111583</v>
+        <v>35.67652145158137</v>
       </c>
       <c r="G15">
-        <v>2.094016744565014</v>
+        <v>3.672426514001634</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.24255800917846</v>
+        <v>26.5305886910586</v>
       </c>
       <c r="J15">
-        <v>5.850845953168923</v>
+        <v>10.3164291599838</v>
       </c>
       <c r="K15">
-        <v>13.74525632053506</v>
+        <v>11.61617105167668</v>
       </c>
       <c r="L15">
-        <v>8.228173880521398</v>
+        <v>11.79767509601156</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.37383972319307</v>
+        <v>20.14732470209931</v>
       </c>
       <c r="O15">
-        <v>17.35970882859068</v>
+        <v>27.11685258342589</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.79470513708215</v>
+        <v>14.71083052390839</v>
       </c>
       <c r="C16">
-        <v>6.767981526825784</v>
+        <v>7.15107745992937</v>
       </c>
       <c r="D16">
-        <v>6.694092073748193</v>
+        <v>8.747479465757896</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.36977582824381</v>
+        <v>35.70359757970609</v>
       </c>
       <c r="G16">
-        <v>2.097009333603143</v>
+        <v>3.673481160499929</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.28140412530281</v>
+        <v>26.57805056448481</v>
       </c>
       <c r="J16">
-        <v>5.870910167543844</v>
+        <v>10.32822462321275</v>
       </c>
       <c r="K16">
-        <v>13.32631371110165</v>
+        <v>11.50506257930183</v>
       </c>
       <c r="L16">
-        <v>8.104532026602767</v>
+        <v>11.78838239337956</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.50806258243619</v>
+        <v>20.1841849408649</v>
       </c>
       <c r="O16">
-        <v>17.32091006913397</v>
+        <v>27.15546865730827</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.4404469911362</v>
+        <v>14.61407781347673</v>
       </c>
       <c r="C17">
-        <v>6.705125252591115</v>
+        <v>7.131043409524771</v>
       </c>
       <c r="D17">
-        <v>6.607151279805744</v>
+        <v>8.735777874381014</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.25166314599836</v>
+        <v>35.72204248007197</v>
       </c>
       <c r="G17">
-        <v>2.0988650846752</v>
+        <v>3.674142820771344</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.3087055622109</v>
+        <v>26.60827605999261</v>
       </c>
       <c r="J17">
-        <v>5.883684860969248</v>
+        <v>10.33568051067306</v>
       </c>
       <c r="K17">
-        <v>13.06305288683018</v>
+        <v>11.43675671560808</v>
       </c>
       <c r="L17">
-        <v>8.028665718372265</v>
+        <v>11.78308231809443</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.59095639553983</v>
+        <v>20.20723442131873</v>
       </c>
       <c r="O17">
-        <v>17.30106936051187</v>
+        <v>27.18041199001879</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.23347600198347</v>
+        <v>14.55833884457043</v>
       </c>
       <c r="C18">
-        <v>6.668722241541632</v>
+        <v>7.119457401430567</v>
       </c>
       <c r="D18">
-        <v>6.556856422355353</v>
+        <v>8.729156798406629</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.18548270124793</v>
+        <v>35.73332562304856</v>
       </c>
       <c r="G18">
-        <v>2.099939943674679</v>
+        <v>3.674528793516766</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.32564975058855</v>
+        <v>26.62606852294994</v>
       </c>
       <c r="J18">
-        <v>5.891202035060799</v>
+        <v>10.34004982744924</v>
       </c>
       <c r="K18">
-        <v>12.90932758275939</v>
+        <v>11.39742857852223</v>
       </c>
       <c r="L18">
-        <v>7.98503600513579</v>
+        <v>11.78018184651121</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.63884525634317</v>
+        <v>20.22065278538367</v>
       </c>
       <c r="O18">
-        <v>17.29108117263621</v>
+        <v>27.19521921243133</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.16284627489459</v>
+        <v>14.53945305316003</v>
       </c>
       <c r="C19">
-        <v>6.656354399016454</v>
+        <v>7.11552388464185</v>
       </c>
       <c r="D19">
-        <v>6.539779320475482</v>
+        <v>8.726933931903162</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.16337517921187</v>
+        <v>35.73726167189762</v>
       </c>
       <c r="G19">
-        <v>2.100305172873477</v>
+        <v>3.674660406462253</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.3315967169956</v>
+        <v>26.63216273786032</v>
       </c>
       <c r="J19">
-        <v>5.893776174827937</v>
+        <v>10.34154310782234</v>
       </c>
       <c r="K19">
-        <v>12.85688242593386</v>
+        <v>11.38410701913352</v>
       </c>
       <c r="L19">
-        <v>7.970266078912186</v>
+        <v>11.77922528262151</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.65509645921128</v>
+        <v>20.22522368279247</v>
       </c>
       <c r="O19">
-        <v>17.28794081057341</v>
+        <v>27.20031174879808</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.47849037509232</v>
+        <v>14.62438698407637</v>
       </c>
       <c r="C20">
-        <v>6.711842371646107</v>
+        <v>7.13318261186846</v>
       </c>
       <c r="D20">
-        <v>6.616436513413306</v>
+        <v>8.737012240834076</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.26405450493812</v>
+        <v>35.72000921724987</v>
       </c>
       <c r="G20">
-        <v>2.09866676639944</v>
+        <v>3.674071826971983</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.30567006034754</v>
+        <v>26.60501632237349</v>
       </c>
       <c r="J20">
-        <v>5.882307391419221</v>
+        <v>10.33487845008918</v>
       </c>
       <c r="K20">
-        <v>13.09131583032048</v>
+        <v>11.4440324613436</v>
       </c>
       <c r="L20">
-        <v>8.036741422164122</v>
+        <v>11.78363121992254</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.58211058527528</v>
+        <v>20.2047641187639</v>
       </c>
       <c r="O20">
-        <v>17.303033370074</v>
+        <v>27.17770906679367</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.50075112163214</v>
+        <v>14.90855326121537</v>
       </c>
       <c r="C21">
-        <v>6.895256784419752</v>
+        <v>7.191752645152001</v>
       </c>
       <c r="D21">
-        <v>6.870440035604759</v>
+        <v>8.77217078575692</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.62338399393258</v>
+        <v>35.67009813109535</v>
       </c>
       <c r="G21">
-        <v>2.09325012691715</v>
+        <v>3.672158749845401</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.23363006222286</v>
+        <v>26.51867792968635</v>
       </c>
       <c r="J21">
-        <v>5.845811267164643</v>
+        <v>10.31345163721607</v>
       </c>
       <c r="K21">
-        <v>13.85149165764031</v>
+        <v>11.64480221891058</v>
       </c>
       <c r="L21">
-        <v>8.260080947455716</v>
+        <v>11.80019755354264</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.3393505514837</v>
+        <v>20.1379429090994</v>
       </c>
       <c r="O21">
-        <v>17.37097650125069</v>
+        <v>27.10727041832631</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.14058465661087</v>
+        <v>15.09308016358895</v>
       </c>
       <c r="C22">
-        <v>7.012807473322318</v>
+        <v>7.229444632749734</v>
       </c>
       <c r="D22">
-        <v>7.03357257951162</v>
+        <v>8.796092445464103</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.8741264602209</v>
+        <v>35.64348212551581</v>
       </c>
       <c r="G22">
-        <v>2.08977299150487</v>
+        <v>3.670956293551681</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.19833829995236</v>
+        <v>26.46588132630225</v>
       </c>
       <c r="J22">
-        <v>5.823506010640642</v>
+        <v>10.30016553654484</v>
       </c>
       <c r="K22">
-        <v>14.32793794777941</v>
+        <v>11.77539077240409</v>
       </c>
       <c r="L22">
-        <v>8.405846955672777</v>
+        <v>11.81232646744865</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.18240479683888</v>
+        <v>20.09569695410918</v>
       </c>
       <c r="O22">
-        <v>17.42873619091129</v>
+        <v>27.06533978616517</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.80166458670018</v>
+        <v>14.99472252485056</v>
       </c>
       <c r="C23">
-        <v>6.950285100997486</v>
+        <v>7.209382677184248</v>
       </c>
       <c r="D23">
-        <v>6.946782051537177</v>
+        <v>8.783240180432793</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.73883355725341</v>
+        <v>35.65713827278666</v>
       </c>
       <c r="G23">
-        <v>2.091623227013773</v>
+        <v>3.671593701578345</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.2160588130434</v>
+        <v>26.4937276120097</v>
       </c>
       <c r="J23">
-        <v>5.835267287836292</v>
+        <v>10.3071910533292</v>
       </c>
       <c r="K23">
-        <v>14.0755057212468</v>
+        <v>11.70576314543703</v>
       </c>
       <c r="L23">
-        <v>8.328079013808392</v>
+        <v>11.805734719336</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.26602120432069</v>
+        <v>20.11811432886556</v>
       </c>
       <c r="O23">
-        <v>17.3966542351421</v>
+        <v>27.08734312875561</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.46130125365427</v>
+        <v>14.61972656035729</v>
       </c>
       <c r="C24">
-        <v>6.70880638982686</v>
+        <v>7.132215690530954</v>
       </c>
       <c r="D24">
-        <v>6.612239625854753</v>
+        <v>8.73645385224923</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.25844700452785</v>
+        <v>35.7209263405945</v>
       </c>
       <c r="G24">
-        <v>2.098756401249091</v>
+        <v>3.674103905898524</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.30703853087585</v>
+        <v>26.60648875574769</v>
       </c>
       <c r="J24">
-        <v>5.882929607474463</v>
+        <v>10.33524080365006</v>
       </c>
       <c r="K24">
-        <v>13.07854554696809</v>
+        <v>11.44074327492891</v>
       </c>
       <c r="L24">
-        <v>8.033090434534083</v>
+        <v>11.783382604556</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.58610905137533</v>
+        <v>20.20588042254375</v>
       </c>
       <c r="O24">
-        <v>17.30214103058906</v>
+        <v>27.17892960385803</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.96339039916113</v>
+        <v>14.21206871695207</v>
       </c>
       <c r="C25">
-        <v>6.438863607654191</v>
+        <v>7.046587595722931</v>
       </c>
       <c r="D25">
-        <v>6.240575571300504</v>
+        <v>8.690184585333824</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.80713439118967</v>
+        <v>35.81550124587973</v>
       </c>
       <c r="G25">
-        <v>2.106738592883527</v>
+        <v>3.6770183119588</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.45222555988981</v>
+        <v>26.74370104175076</v>
       </c>
       <c r="J25">
-        <v>5.940803138160732</v>
+        <v>10.36859120368289</v>
       </c>
       <c r="K25">
-        <v>11.91499901048247</v>
+        <v>11.15349832401352</v>
       </c>
       <c r="L25">
-        <v>7.715327652768611</v>
+        <v>11.76493814795425</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.93951044410312</v>
+        <v>20.30670707466863</v>
       </c>
       <c r="O25">
-        <v>17.25420938475583</v>
+        <v>27.29532202881195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.91136961125256</v>
+        <v>13.81121820502899</v>
       </c>
       <c r="C2">
-        <v>6.981614341490489</v>
+        <v>6.232582595970965</v>
       </c>
       <c r="D2">
-        <v>8.659868089277644</v>
+        <v>5.959558819367572</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.90727507867637</v>
+        <v>23.53032951400851</v>
       </c>
       <c r="G2">
-        <v>3.679343829455548</v>
+        <v>2.11288289291296</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.85813808949183</v>
+        <v>16.59584064508876</v>
       </c>
       <c r="J2">
-        <v>10.39582709252655</v>
+        <v>5.988797558018739</v>
       </c>
       <c r="K2">
-        <v>10.94225883034519</v>
+        <v>10.98175311461213</v>
       </c>
       <c r="L2">
-        <v>11.75630123777942</v>
+        <v>7.483221316525192</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.38629481309523</v>
+        <v>13.20758064534711</v>
       </c>
       <c r="O2">
-        <v>27.39613999250987</v>
+        <v>17.26161873822627</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.70839579162905</v>
+        <v>12.97870413943429</v>
       </c>
       <c r="C3">
-        <v>6.936448089446534</v>
+        <v>6.088476891967952</v>
       </c>
       <c r="D3">
-        <v>8.64172854694894</v>
+        <v>5.765693604873159</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.98326052489513</v>
+        <v>23.37610898500413</v>
       </c>
       <c r="G3">
-        <v>3.681032852521445</v>
+        <v>2.117222622035259</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.94406105946747</v>
+        <v>16.71429655750075</v>
       </c>
       <c r="J3">
-        <v>10.41596661498348</v>
+        <v>6.024602246341432</v>
       </c>
       <c r="K3">
-        <v>10.80001463511535</v>
+        <v>10.30135644258118</v>
       </c>
       <c r="L3">
-        <v>11.7535638622998</v>
+        <v>7.327903362377806</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.44359653323766</v>
+        <v>13.39456271137592</v>
       </c>
       <c r="O3">
-        <v>27.47388480070775</v>
+        <v>17.29136449728235</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.58456563137349</v>
+        <v>12.44273383855752</v>
       </c>
       <c r="C4">
-        <v>6.908180257908715</v>
+        <v>5.998021397625275</v>
       </c>
       <c r="D4">
-        <v>8.631798343173685</v>
+        <v>5.64542665658292</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.03670866526616</v>
+        <v>23.29739293109167</v>
       </c>
       <c r="G4">
-        <v>3.682125962166448</v>
+        <v>2.119976720910469</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.0009468454777</v>
+        <v>16.79689197669527</v>
       </c>
       <c r="J4">
-        <v>10.42916497538205</v>
+        <v>6.04817954041627</v>
       </c>
       <c r="K4">
-        <v>10.71338430006119</v>
+        <v>9.859955640781049</v>
       </c>
       <c r="L4">
-        <v>11.75342990457175</v>
+        <v>7.233804731446224</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.48044839138423</v>
+        <v>13.5121140038146</v>
       </c>
       <c r="O4">
-        <v>27.52626241795823</v>
+        <v>17.321186277247</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.53436474690903</v>
+        <v>12.21822233494231</v>
       </c>
       <c r="C5">
-        <v>6.896529907763189</v>
+        <v>5.960688807098906</v>
       </c>
       <c r="D5">
-        <v>8.628058406535445</v>
+        <v>5.596181503360134</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.06019588540175</v>
+        <v>23.2692539053457</v>
       </c>
       <c r="G5">
-        <v>3.68258554830043</v>
+        <v>2.121121935547749</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.02516658752718</v>
+        <v>16.83295078442204</v>
       </c>
       <c r="J5">
-        <v>10.43475323770334</v>
+        <v>6.058184673348491</v>
       </c>
       <c r="K5">
-        <v>10.67829899148495</v>
+        <v>9.674149344185084</v>
       </c>
       <c r="L5">
-        <v>11.75376574503383</v>
+        <v>7.195822185500968</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.49588655139375</v>
+        <v>13.56072430577801</v>
       </c>
       <c r="O5">
-        <v>27.54877331294812</v>
+        <v>17.33615077833878</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.52604645710725</v>
+        <v>12.18057871734955</v>
       </c>
       <c r="C6">
-        <v>6.894587573293776</v>
+        <v>5.954462067678161</v>
       </c>
       <c r="D6">
-        <v>8.62745600202533</v>
+        <v>5.587992450204181</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.06419895219889</v>
+        <v>23.26481685666898</v>
       </c>
       <c r="G6">
-        <v>3.682662717209504</v>
+        <v>2.12131349176761</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.02925097296477</v>
+        <v>16.8390810411335</v>
       </c>
       <c r="J6">
-        <v>10.43569385065227</v>
+        <v>6.059869912306152</v>
       </c>
       <c r="K6">
-        <v>10.67248736494763</v>
+        <v>9.642938599252743</v>
       </c>
       <c r="L6">
-        <v>11.75384513253643</v>
+        <v>7.189538471410431</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.49847549249932</v>
+        <v>13.5688392161372</v>
       </c>
       <c r="O6">
-        <v>27.55258166846299</v>
+        <v>17.33880270057524</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.58388746822095</v>
+        <v>12.43973048570828</v>
       </c>
       <c r="C7">
-        <v>6.908023662654483</v>
+        <v>5.997519790736004</v>
       </c>
       <c r="D7">
-        <v>8.631746659371728</v>
+        <v>5.644763369809874</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.03701851397483</v>
+        <v>23.2969976016826</v>
       </c>
       <c r="G7">
-        <v>3.682132103016817</v>
+        <v>2.119992072453734</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.00126927710204</v>
+        <v>16.79736866161866</v>
       </c>
       <c r="J7">
-        <v>10.42923949046623</v>
+        <v>6.048312869235668</v>
       </c>
       <c r="K7">
-        <v>10.71291019606398</v>
+        <v>9.857473788319039</v>
       </c>
       <c r="L7">
-        <v>11.75343285114709</v>
+        <v>7.233290954881268</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.48065489069838</v>
+        <v>13.51276669349294</v>
       </c>
       <c r="O7">
-        <v>27.52656128521133</v>
+        <v>17.32137683295008</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.84125523990152</v>
+        <v>13.52938746660502</v>
       </c>
       <c r="C8">
-        <v>6.966154383127029</v>
+        <v>6.183319139132721</v>
       </c>
       <c r="D8">
-        <v>8.653364841794183</v>
+        <v>5.893013077172509</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.93206423645744</v>
+        <v>23.47379337169043</v>
       </c>
       <c r="G8">
-        <v>3.679914598694308</v>
+        <v>2.114360900716002</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.88690748422499</v>
+        <v>16.63458825674071</v>
       </c>
       <c r="J8">
-        <v>10.40259866559775</v>
+        <v>6.000810265968457</v>
       </c>
       <c r="K8">
-        <v>10.8930896042223</v>
+        <v>10.75206146347708</v>
       </c>
       <c r="L8">
-        <v>11.75503727223867</v>
+        <v>7.429431431504963</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.40570690343543</v>
+        <v>13.27149328933688</v>
       </c>
       <c r="O8">
-        <v>27.42198256627653</v>
+        <v>17.26941937444009</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.34962299821024</v>
+        <v>15.4649598392208</v>
       </c>
       <c r="C9">
-        <v>7.075739609927647</v>
+        <v>6.531009081627186</v>
       </c>
       <c r="D9">
-        <v>8.705196931393292</v>
+        <v>6.367056468169323</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.78020239064401</v>
+        <v>23.9503914936963</v>
       </c>
       <c r="G9">
-        <v>3.676008805297509</v>
+        <v>2.104009549886016</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.69539852615581</v>
+        <v>16.39737154643271</v>
       </c>
       <c r="J9">
-        <v>10.35694200638184</v>
+        <v>5.920461094406168</v>
       </c>
       <c r="K9">
-        <v>11.25031593986738</v>
+        <v>12.31879185302361</v>
       </c>
       <c r="L9">
-        <v>11.77038778865523</v>
+        <v>7.822182359739892</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.27191608097911</v>
+        <v>12.8193010853188</v>
       </c>
       <c r="O9">
-        <v>27.25376509478324</v>
+        <v>17.2634689267623</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.7218571949703</v>
+        <v>16.8346944237798</v>
       </c>
       <c r="C10">
-        <v>7.153354863900767</v>
+        <v>6.775119664411307</v>
       </c>
       <c r="D10">
-        <v>8.748829417219758</v>
+        <v>6.703972389798817</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.70158424094242</v>
+        <v>24.38349209873004</v>
       </c>
       <c r="G10">
-        <v>3.673406391709079</v>
+        <v>2.09679858093936</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.57465685482084</v>
+        <v>16.27845948806754</v>
       </c>
       <c r="J10">
-        <v>10.32738480572525</v>
+        <v>5.86947557862996</v>
       </c>
       <c r="K10">
-        <v>11.51285035658728</v>
+        <v>13.35604178393468</v>
       </c>
       <c r="L10">
-        <v>11.78900716933601</v>
+        <v>8.113188877580937</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.18157661377062</v>
+        <v>12.49863180983728</v>
       </c>
       <c r="O10">
-        <v>27.15268486217098</v>
+        <v>17.32336926651109</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.89020307873332</v>
+        <v>17.43616303245545</v>
       </c>
       <c r="C11">
-        <v>7.187991187251966</v>
+        <v>6.883505676750802</v>
       </c>
       <c r="D11">
-        <v>8.769837083436206</v>
+        <v>6.854144020163602</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.67298236692418</v>
+        <v>24.59917719874841</v>
       </c>
       <c r="G11">
-        <v>3.672279921516101</v>
+        <v>2.093597389719449</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.5240609534031</v>
+        <v>16.23762270863276</v>
       </c>
       <c r="J11">
-        <v>10.31479819954526</v>
+        <v>5.848086604320986</v>
       </c>
       <c r="K11">
-        <v>11.63182500453523</v>
+        <v>13.80342326363712</v>
       </c>
       <c r="L11">
-        <v>11.79904794257799</v>
+        <v>8.245616593480717</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.14218962742365</v>
+        <v>12.35497866487203</v>
       </c>
       <c r="O11">
-        <v>27.1115955490005</v>
+        <v>17.3658060311563</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.95375186477323</v>
+        <v>17.65907164168609</v>
       </c>
       <c r="C12">
-        <v>7.201006820069772</v>
+        <v>6.924151756012444</v>
       </c>
       <c r="D12">
-        <v>8.777954476880282</v>
+        <v>6.910520685781115</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.66318151059627</v>
+        <v>24.68357771254616</v>
       </c>
       <c r="G12">
-        <v>3.671861564077904</v>
+        <v>2.092396014128841</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.50552423268855</v>
+        <v>16.22417249177829</v>
       </c>
       <c r="J12">
-        <v>10.31015506317778</v>
+        <v>5.840252001701319</v>
       </c>
       <c r="K12">
-        <v>11.67677368573119</v>
+        <v>13.96933961826811</v>
       </c>
       <c r="L12">
-        <v>11.80307371724642</v>
+        <v>8.295732588568701</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.12751928960585</v>
+        <v>12.30087609039521</v>
       </c>
       <c r="O12">
-        <v>27.09674015437534</v>
+        <v>17.3841593566361</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.94007530648635</v>
+        <v>17.61127942842707</v>
       </c>
       <c r="C13">
-        <v>7.198208196644925</v>
+        <v>6.915415776996475</v>
       </c>
       <c r="D13">
-        <v>8.776199107345342</v>
+        <v>6.898401417164191</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.66524648930944</v>
+        <v>24.66527875382785</v>
       </c>
       <c r="G13">
-        <v>3.671951300206158</v>
+        <v>2.092654278236614</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.50948874280485</v>
+        <v>16.22697791961538</v>
       </c>
       <c r="J13">
-        <v>10.31114957541604</v>
+        <v>5.841927449553157</v>
       </c>
       <c r="K13">
-        <v>11.66709844006621</v>
+        <v>13.93376172822183</v>
       </c>
       <c r="L13">
-        <v>11.80219679049895</v>
+        <v>8.284941192325835</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.13066794509928</v>
+        <v>12.3125152841856</v>
       </c>
       <c r="O13">
-        <v>27.09990819811882</v>
+        <v>17.38010351177656</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.89543561417428</v>
+        <v>17.45459887598982</v>
       </c>
       <c r="C14">
-        <v>7.18906402516373</v>
+        <v>6.886857693527215</v>
       </c>
       <c r="D14">
-        <v>8.770501680592725</v>
+        <v>6.858792222745495</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.67215540098287</v>
+        <v>24.60606604738273</v>
       </c>
       <c r="G14">
-        <v>3.672245338630899</v>
+        <v>2.093498337597946</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.52252344234003</v>
+        <v>16.23647516227967</v>
       </c>
       <c r="J14">
-        <v>10.31441374033339</v>
+        <v>5.84743670454074</v>
       </c>
       <c r="K14">
-        <v>11.63552527321696</v>
+        <v>13.81714325818014</v>
       </c>
       <c r="L14">
-        <v>11.79937467894063</v>
+        <v>8.249740507027068</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.14097779270107</v>
+        <v>12.35052182609382</v>
       </c>
       <c r="O14">
-        <v>27.11035926911369</v>
+        <v>17.3672696411625</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.86806474963009</v>
+        <v>17.35799672847545</v>
       </c>
       <c r="C15">
-        <v>7.183449768259237</v>
+        <v>6.869312899679731</v>
       </c>
       <c r="D15">
-        <v>8.767032837124274</v>
+        <v>6.834465381607574</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.67652145158137</v>
+        <v>24.5701525811157</v>
       </c>
       <c r="G15">
-        <v>3.672426514001634</v>
+        <v>2.094016744565279</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.5305886910586</v>
+        <v>16.24255800917834</v>
       </c>
       <c r="J15">
-        <v>10.3164291599838</v>
+        <v>5.850845953168956</v>
       </c>
       <c r="K15">
-        <v>11.61617105167668</v>
+        <v>13.74525632053512</v>
       </c>
       <c r="L15">
-        <v>11.79767509601156</v>
+        <v>8.228173880521386</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.14732470209931</v>
+        <v>12.373839723193</v>
       </c>
       <c r="O15">
-        <v>27.11685258342589</v>
+        <v>17.35970882859055</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.71083052390839</v>
+        <v>16.79470513708215</v>
       </c>
       <c r="C16">
-        <v>7.15107745992937</v>
+        <v>6.767981526825883</v>
       </c>
       <c r="D16">
-        <v>8.747479465757896</v>
+        <v>6.694092073748195</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.70359757970609</v>
+        <v>24.36977582824384</v>
       </c>
       <c r="G16">
-        <v>3.673481160499929</v>
+        <v>2.097009333603144</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.57805056448481</v>
+        <v>16.28140412530285</v>
       </c>
       <c r="J16">
-        <v>10.32822462321275</v>
+        <v>5.870910167543907</v>
       </c>
       <c r="K16">
-        <v>11.50506257930183</v>
+        <v>13.32631371110166</v>
       </c>
       <c r="L16">
-        <v>11.78838239337956</v>
+        <v>8.104532026602767</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.1841849408649</v>
+        <v>12.50806258243619</v>
       </c>
       <c r="O16">
-        <v>27.15546865730827</v>
+        <v>17.320910069134</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.61407781347673</v>
+        <v>16.4404469911362</v>
       </c>
       <c r="C17">
-        <v>7.131043409524771</v>
+        <v>6.705125252591435</v>
       </c>
       <c r="D17">
-        <v>8.735777874381014</v>
+        <v>6.607151279805737</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.72204248007197</v>
+        <v>24.25166314599845</v>
       </c>
       <c r="G17">
-        <v>3.674142820771344</v>
+        <v>2.0988650846752</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.60827605999261</v>
+        <v>16.30870556221101</v>
       </c>
       <c r="J17">
-        <v>10.33568051067306</v>
+        <v>5.883684860969221</v>
       </c>
       <c r="K17">
-        <v>11.43675671560808</v>
+        <v>13.06305288683021</v>
       </c>
       <c r="L17">
-        <v>11.78308231809443</v>
+        <v>8.028665718372217</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.20723442131873</v>
+        <v>12.59095639553993</v>
       </c>
       <c r="O17">
-        <v>27.18041199001879</v>
+        <v>17.30106936051192</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.55833884457043</v>
+        <v>16.23347600198348</v>
       </c>
       <c r="C18">
-        <v>7.119457401430567</v>
+        <v>6.668722241541392</v>
       </c>
       <c r="D18">
-        <v>8.729156798406629</v>
+        <v>6.556856422355413</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.73332562304856</v>
+        <v>24.18548270124798</v>
       </c>
       <c r="G18">
-        <v>3.674528793516766</v>
+        <v>2.099939943674814</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.62606852294994</v>
+        <v>16.32564975058862</v>
       </c>
       <c r="J18">
-        <v>10.34004982744924</v>
+        <v>5.891202035060827</v>
       </c>
       <c r="K18">
-        <v>11.39742857852223</v>
+        <v>12.90932758275941</v>
       </c>
       <c r="L18">
-        <v>11.78018184651121</v>
+        <v>7.985036005135784</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.22065278538367</v>
+        <v>12.6388452563432</v>
       </c>
       <c r="O18">
-        <v>27.19521921243133</v>
+        <v>17.29108117263624</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.53945305316003</v>
+        <v>16.16284627489457</v>
       </c>
       <c r="C19">
-        <v>7.11552388464185</v>
+        <v>6.656354399016534</v>
       </c>
       <c r="D19">
-        <v>8.726933931903162</v>
+        <v>6.539779320475398</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.73726167189762</v>
+        <v>24.16337517921191</v>
       </c>
       <c r="G19">
-        <v>3.674660406462253</v>
+        <v>2.100305172873344</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.63216273786032</v>
+        <v>16.33159671699573</v>
       </c>
       <c r="J19">
-        <v>10.34154310782234</v>
+        <v>5.893776174827906</v>
       </c>
       <c r="K19">
-        <v>11.38410701913352</v>
+        <v>12.85688242593383</v>
       </c>
       <c r="L19">
-        <v>11.77922528262151</v>
+        <v>7.970266078912101</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.22522368279247</v>
+        <v>12.65509645921132</v>
       </c>
       <c r="O19">
-        <v>27.20031174879808</v>
+        <v>17.28794081057353</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.62438698407637</v>
+        <v>16.47849037509233</v>
       </c>
       <c r="C20">
-        <v>7.13318261186846</v>
+        <v>6.711842371646217</v>
       </c>
       <c r="D20">
-        <v>8.737012240834076</v>
+        <v>6.616436513413363</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.72000921724987</v>
+        <v>24.26405450493821</v>
       </c>
       <c r="G20">
-        <v>3.674071826971983</v>
+        <v>2.098666766399574</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.60501632237349</v>
+        <v>16.30567006034757</v>
       </c>
       <c r="J20">
-        <v>10.33487845008918</v>
+        <v>5.882307391419221</v>
       </c>
       <c r="K20">
-        <v>11.4440324613436</v>
+        <v>13.0913158303205</v>
       </c>
       <c r="L20">
-        <v>11.78363121992254</v>
+        <v>8.036741422164184</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.2047641187639</v>
+        <v>12.58211058527525</v>
       </c>
       <c r="O20">
-        <v>27.17770906679367</v>
+        <v>17.30303337007398</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.90855326121537</v>
+        <v>17.50075112163218</v>
       </c>
       <c r="C21">
-        <v>7.191752645152001</v>
+        <v>6.895256784419389</v>
       </c>
       <c r="D21">
-        <v>8.77217078575692</v>
+        <v>6.870440035604701</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.67009813109535</v>
+        <v>24.62338399393257</v>
       </c>
       <c r="G21">
-        <v>3.672158749845401</v>
+        <v>2.093250126917149</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.51867792968635</v>
+        <v>16.23363006222285</v>
       </c>
       <c r="J21">
-        <v>10.31345163721607</v>
+        <v>5.845811267164672</v>
       </c>
       <c r="K21">
-        <v>11.64480221891058</v>
+        <v>13.8514916576403</v>
       </c>
       <c r="L21">
-        <v>11.80019755354264</v>
+        <v>8.260080947455759</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.1379429090994</v>
+        <v>12.3393505514837</v>
       </c>
       <c r="O21">
-        <v>27.10727041832631</v>
+        <v>17.37097650125074</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.09308016358895</v>
+        <v>18.14058465661088</v>
       </c>
       <c r="C22">
-        <v>7.229444632749734</v>
+        <v>7.012807473322305</v>
       </c>
       <c r="D22">
-        <v>8.796092445464103</v>
+        <v>7.03357257951162</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.64348212551581</v>
+        <v>24.87412646022088</v>
       </c>
       <c r="G22">
-        <v>3.670956293551681</v>
+        <v>2.089772991504736</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.46588132630225</v>
+        <v>16.19833829995237</v>
       </c>
       <c r="J22">
-        <v>10.30016553654484</v>
+        <v>5.823506010640741</v>
       </c>
       <c r="K22">
-        <v>11.77539077240409</v>
+        <v>14.32793794777943</v>
       </c>
       <c r="L22">
-        <v>11.81232646744865</v>
+        <v>8.405846955672798</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.09569695410918</v>
+        <v>12.18240479683885</v>
       </c>
       <c r="O22">
-        <v>27.06533978616517</v>
+        <v>17.42873619091125</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.99472252485056</v>
+        <v>17.80166458670017</v>
       </c>
       <c r="C23">
-        <v>7.209382677184248</v>
+        <v>6.950285100997496</v>
       </c>
       <c r="D23">
-        <v>8.783240180432793</v>
+        <v>6.946782051537105</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.65713827278666</v>
+        <v>24.73883355725345</v>
       </c>
       <c r="G23">
-        <v>3.671593701578345</v>
+        <v>2.091623227013909</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.4937276120097</v>
+        <v>16.21605881304344</v>
       </c>
       <c r="J23">
-        <v>10.3071910533292</v>
+        <v>5.835267287836351</v>
       </c>
       <c r="K23">
-        <v>11.70576314543703</v>
+        <v>14.07550572124677</v>
       </c>
       <c r="L23">
-        <v>11.805734719336</v>
+        <v>8.328079013808388</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.11811432886556</v>
+        <v>12.26602120432069</v>
       </c>
       <c r="O23">
-        <v>27.08734312875561</v>
+        <v>17.39665423514217</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.61972656035729</v>
+        <v>16.46130125365428</v>
       </c>
       <c r="C24">
-        <v>7.132215690530954</v>
+        <v>6.708806389826863</v>
       </c>
       <c r="D24">
-        <v>8.73645385224923</v>
+        <v>6.612239625854714</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.7209263405945</v>
+        <v>24.25844700452776</v>
       </c>
       <c r="G24">
-        <v>3.674103905898524</v>
+        <v>2.098756401248957</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.60648875574769</v>
+        <v>16.30703853087574</v>
       </c>
       <c r="J24">
-        <v>10.33524080365006</v>
+        <v>5.882929607474406</v>
       </c>
       <c r="K24">
-        <v>11.44074327492891</v>
+        <v>13.0785455469681</v>
       </c>
       <c r="L24">
-        <v>11.783382604556</v>
+        <v>8.033090434534106</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.20588042254375</v>
+        <v>12.58610905137527</v>
       </c>
       <c r="O24">
-        <v>27.17892960385803</v>
+        <v>17.30214103058899</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.21206871695207</v>
+        <v>14.96339039916116</v>
       </c>
       <c r="C25">
-        <v>7.046587595722931</v>
+        <v>6.438863607654059</v>
       </c>
       <c r="D25">
-        <v>8.690184585333824</v>
+        <v>6.240575571300546</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.81550124587973</v>
+        <v>23.80713439118982</v>
       </c>
       <c r="G25">
-        <v>3.6770183119588</v>
+        <v>2.106738592883526</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.74370104175076</v>
+        <v>16.4522255598899</v>
       </c>
       <c r="J25">
-        <v>10.36859120368289</v>
+        <v>5.940803138160764</v>
       </c>
       <c r="K25">
-        <v>11.15349832401352</v>
+        <v>11.91499901048243</v>
       </c>
       <c r="L25">
-        <v>11.76493814795425</v>
+        <v>7.715327652768668</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.30670707466863</v>
+        <v>12.93951044410312</v>
       </c>
       <c r="O25">
-        <v>27.29532202881195</v>
+        <v>17.25420938475594</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,923 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.81121820502899</v>
+        <v>18.75818236590151</v>
       </c>
       <c r="C2">
-        <v>6.232582595970965</v>
+        <v>14.55254089059953</v>
       </c>
       <c r="D2">
-        <v>5.959558819367572</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>4.83631177471776</v>
       </c>
       <c r="F2">
-        <v>23.53032951400851</v>
+        <v>13.73015495282502</v>
       </c>
       <c r="G2">
-        <v>2.11288289291296</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>15.30929384966362</v>
       </c>
       <c r="I2">
-        <v>16.59584064508876</v>
+        <v>3.633293817757401</v>
       </c>
       <c r="J2">
-        <v>5.988797558018739</v>
+        <v>6.824282806151445</v>
       </c>
       <c r="K2">
-        <v>10.98175311461213</v>
-      </c>
-      <c r="L2">
-        <v>7.483221316525192</v>
+        <v>9.762787969377099</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>13.20758064534711</v>
-      </c>
-      <c r="O2">
-        <v>17.26161873822627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.29330401091041</v>
+      </c>
+      <c r="Q2">
+        <v>10.40609437464179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.97870413943429</v>
+        <v>17.57275442586533</v>
       </c>
       <c r="C3">
-        <v>6.088476891967952</v>
+        <v>13.82152420649765</v>
       </c>
       <c r="D3">
-        <v>5.765693604873159</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>4.583340024876134</v>
       </c>
       <c r="F3">
-        <v>23.37610898500413</v>
+        <v>13.33736054201052</v>
       </c>
       <c r="G3">
-        <v>2.117222622035259</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>14.77419843150065</v>
       </c>
       <c r="I3">
-        <v>16.71429655750075</v>
+        <v>3.510273634072721</v>
       </c>
       <c r="J3">
-        <v>6.024602246341432</v>
+        <v>6.852214531995926</v>
       </c>
       <c r="K3">
-        <v>10.30135644258118</v>
-      </c>
-      <c r="L3">
-        <v>7.327903362377806</v>
+        <v>9.963698036901341</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>13.39456271137592</v>
-      </c>
-      <c r="O3">
-        <v>17.29136449728235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.21895128962899</v>
+      </c>
+      <c r="Q3">
+        <v>10.33765592309656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.44273383855752</v>
+        <v>16.79908969892107</v>
       </c>
       <c r="C4">
-        <v>5.998021397625275</v>
+        <v>13.35438826777564</v>
       </c>
       <c r="D4">
-        <v>5.64542665658292</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>4.42065565636552</v>
       </c>
       <c r="F4">
-        <v>23.29739293109167</v>
+        <v>13.10056983645303</v>
       </c>
       <c r="G4">
-        <v>2.119976720910469</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>14.45068535175988</v>
       </c>
       <c r="I4">
-        <v>16.79689197669527</v>
+        <v>3.432422911192364</v>
       </c>
       <c r="J4">
-        <v>6.04817954041627</v>
+        <v>6.872983384767034</v>
       </c>
       <c r="K4">
-        <v>9.859955640781049</v>
-      </c>
-      <c r="L4">
-        <v>7.233804731446224</v>
+        <v>10.09173551462197</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>13.5121140038146</v>
-      </c>
-      <c r="O4">
-        <v>17.321186277247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.1763792208822</v>
+      </c>
+      <c r="Q4">
+        <v>10.30319337606859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21822233494231</v>
+        <v>16.46759909970301</v>
       </c>
       <c r="C5">
-        <v>5.960688807098906</v>
+        <v>13.16818287951081</v>
       </c>
       <c r="D5">
-        <v>5.596181503360134</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.35391726589542</v>
       </c>
       <c r="F5">
-        <v>23.2692539053457</v>
+        <v>12.99943812160382</v>
       </c>
       <c r="G5">
-        <v>2.121121935547749</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>14.3093198863558</v>
       </c>
       <c r="I5">
-        <v>16.83295078442204</v>
+        <v>3.4003228492756</v>
       </c>
       <c r="J5">
-        <v>6.058184673348491</v>
+        <v>6.880809512321504</v>
       </c>
       <c r="K5">
-        <v>9.674149344185084</v>
-      </c>
-      <c r="L5">
-        <v>7.195822185500968</v>
+        <v>10.14226298054734</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>13.56072430577801</v>
-      </c>
-      <c r="O5">
-        <v>17.33615077833878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.16150479406521</v>
+      </c>
+      <c r="Q5">
+        <v>10.28684436198322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.18057871734955</v>
+        <v>16.40610664697196</v>
       </c>
       <c r="C6">
-        <v>5.954462067678161</v>
+        <v>13.14756225695094</v>
       </c>
       <c r="D6">
-        <v>5.587992450204181</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.344407801367328</v>
       </c>
       <c r="F6">
-        <v>23.26481685666898</v>
+        <v>12.97552917325461</v>
       </c>
       <c r="G6">
-        <v>2.12131349176761</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>14.27246966403501</v>
       </c>
       <c r="I6">
-        <v>16.8390810411335</v>
+        <v>3.395384528255496</v>
       </c>
       <c r="J6">
-        <v>6.059869912306152</v>
+        <v>6.880303816881741</v>
       </c>
       <c r="K6">
-        <v>9.642938599252743</v>
-      </c>
-      <c r="L6">
-        <v>7.189538471410431</v>
+        <v>10.14730155494487</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>13.5688392161372</v>
-      </c>
-      <c r="O6">
-        <v>17.33880270057524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.16117173823667</v>
+      </c>
+      <c r="Q6">
+        <v>10.27915285253544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.43973048570828</v>
+        <v>16.7793121492244</v>
       </c>
       <c r="C7">
-        <v>5.997519790736004</v>
+        <v>13.38027215583488</v>
       </c>
       <c r="D7">
-        <v>5.644763369809874</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>4.424274711559683</v>
       </c>
       <c r="F7">
-        <v>23.2969976016826</v>
+        <v>13.07972957411213</v>
       </c>
       <c r="G7">
-        <v>2.119992072453734</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>14.41238818208349</v>
       </c>
       <c r="I7">
-        <v>16.79736866161866</v>
+        <v>3.432922141428811</v>
       </c>
       <c r="J7">
-        <v>6.048312869235668</v>
+        <v>6.868011198395497</v>
       </c>
       <c r="K7">
-        <v>9.857473788319039</v>
-      </c>
-      <c r="L7">
-        <v>7.233290954881268</v>
+        <v>10.08303885429841</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>13.51276669349294</v>
-      </c>
-      <c r="O7">
-        <v>17.32137683295008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.18193695994091</v>
+      </c>
+      <c r="Q7">
+        <v>10.28909911673958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.52938746660502</v>
+        <v>18.3401556822419</v>
       </c>
       <c r="C8">
-        <v>6.183319139132721</v>
+        <v>14.33982286828102</v>
       </c>
       <c r="D8">
-        <v>5.893013077172509</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>4.756256802045173</v>
       </c>
       <c r="F8">
-        <v>23.47379337169043</v>
+        <v>13.56901597687911</v>
       </c>
       <c r="G8">
-        <v>2.114360900716002</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>15.0777436304582</v>
       </c>
       <c r="I8">
-        <v>16.63458825674071</v>
+        <v>3.592357383415397</v>
       </c>
       <c r="J8">
-        <v>6.000810265968457</v>
+        <v>6.826432078562703</v>
       </c>
       <c r="K8">
-        <v>10.75206146347708</v>
-      </c>
-      <c r="L8">
-        <v>7.429431431504963</v>
+        <v>9.818548036966328</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>13.27149328933688</v>
-      </c>
-      <c r="O8">
-        <v>17.26941937444009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.27485993963185</v>
+      </c>
+      <c r="Q8">
+        <v>10.36272584797228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.4649598392208</v>
+        <v>21.06225022826787</v>
       </c>
       <c r="C9">
-        <v>6.531009081627186</v>
+        <v>16.02525221735458</v>
       </c>
       <c r="D9">
-        <v>6.367056468169323</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>5.340346092033835</v>
       </c>
       <c r="F9">
-        <v>23.9503914936963</v>
+        <v>14.59048495751232</v>
       </c>
       <c r="G9">
-        <v>2.104009549886016</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>16.47486362267564</v>
       </c>
       <c r="I9">
-        <v>16.39737154643271</v>
+        <v>3.886037116895459</v>
       </c>
       <c r="J9">
-        <v>5.920461094406168</v>
+        <v>6.784003962221149</v>
       </c>
       <c r="K9">
-        <v>12.31879185302361</v>
-      </c>
-      <c r="L9">
-        <v>7.822182359739892</v>
+        <v>9.355116724092953</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>12.8193010853188</v>
-      </c>
-      <c r="O9">
-        <v>17.2634689267623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.47102703028352</v>
+      </c>
+      <c r="Q9">
+        <v>10.59349213790238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.8346944237798</v>
+        <v>22.83556051709189</v>
       </c>
       <c r="C10">
-        <v>6.775119664411307</v>
+        <v>17.17995235135291</v>
       </c>
       <c r="D10">
-        <v>6.703972389798817</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>5.733966393968442</v>
       </c>
       <c r="F10">
-        <v>24.38349209873004</v>
+        <v>15.34209760251641</v>
       </c>
       <c r="G10">
-        <v>2.09679858093936</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>17.49318302008106</v>
       </c>
       <c r="I10">
-        <v>16.27845948806754</v>
+        <v>4.092312177577219</v>
       </c>
       <c r="J10">
-        <v>5.86947557862996</v>
+        <v>6.770458793573137</v>
       </c>
       <c r="K10">
-        <v>13.35604178393468</v>
-      </c>
-      <c r="L10">
-        <v>8.113188877580937</v>
+        <v>9.034977806987179</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>12.49863180983728</v>
-      </c>
-      <c r="O10">
-        <v>17.32336926651109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.63352929280427</v>
+      </c>
+      <c r="Q10">
+        <v>10.7963001266818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.43616303245545</v>
+        <v>23.57662775108066</v>
       </c>
       <c r="C11">
-        <v>6.883505676750802</v>
+        <v>17.71985414269855</v>
       </c>
       <c r="D11">
-        <v>6.854144020163602</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>5.910429156562317</v>
       </c>
       <c r="F11">
-        <v>24.59917719874841</v>
+        <v>15.65831999744768</v>
       </c>
       <c r="G11">
-        <v>2.093597389719449</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>17.90870615278145</v>
       </c>
       <c r="I11">
-        <v>16.23762270863276</v>
+        <v>4.186704986433607</v>
       </c>
       <c r="J11">
-        <v>5.848086604320986</v>
+        <v>6.760844662340222</v>
       </c>
       <c r="K11">
-        <v>13.80342326363712</v>
-      </c>
-      <c r="L11">
-        <v>8.245616593480717</v>
+        <v>8.878975318421304</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>12.35497866487203</v>
-      </c>
-      <c r="O11">
-        <v>17.3658060311563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.72103855041456</v>
+      </c>
+      <c r="Q11">
+        <v>10.87646838056149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.65907164168609</v>
+        <v>23.860522742357</v>
       </c>
       <c r="C12">
-        <v>6.924151756012444</v>
+        <v>17.90137390892631</v>
       </c>
       <c r="D12">
-        <v>6.910520685781115</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>5.97293273582395</v>
       </c>
       <c r="F12">
-        <v>24.68357771254616</v>
+        <v>15.79247825549907</v>
       </c>
       <c r="G12">
-        <v>2.092396014128841</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>18.09193938924081</v>
       </c>
       <c r="I12">
-        <v>16.22417249177829</v>
+        <v>4.220880219126332</v>
       </c>
       <c r="J12">
-        <v>5.840252001701319</v>
+        <v>6.762306259461385</v>
       </c>
       <c r="K12">
-        <v>13.96933961826811</v>
-      </c>
-      <c r="L12">
-        <v>8.295732588568701</v>
+        <v>8.829386426621138</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>12.30087609039521</v>
-      </c>
-      <c r="O12">
-        <v>17.3841593566361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.74927220585045</v>
+      </c>
+      <c r="Q12">
+        <v>10.91951832468797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.61127942842707</v>
+        <v>23.80164773269118</v>
       </c>
       <c r="C13">
-        <v>6.915415776996475</v>
+        <v>17.85853145330301</v>
       </c>
       <c r="D13">
-        <v>6.898401417164191</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>5.958912776744936</v>
       </c>
       <c r="F13">
-        <v>24.66527875382785</v>
+        <v>15.76642550594929</v>
       </c>
       <c r="G13">
-        <v>2.092654278236614</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>18.05759686352937</v>
       </c>
       <c r="I13">
-        <v>16.22697791961538</v>
+        <v>4.213217184228698</v>
       </c>
       <c r="J13">
-        <v>5.841927449553157</v>
+        <v>6.762838728777515</v>
       </c>
       <c r="K13">
-        <v>13.93376172822183</v>
-      </c>
-      <c r="L13">
-        <v>8.284941192325835</v>
+        <v>8.841764668738616</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>12.3125152841856</v>
-      </c>
-      <c r="O13">
-        <v>17.38010351177656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.74208058287764</v>
+      </c>
+      <c r="Q13">
+        <v>10.91245105351551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.45459887598982</v>
+        <v>23.60096131111011</v>
       </c>
       <c r="C14">
-        <v>6.886857693527215</v>
+        <v>17.73318768644558</v>
       </c>
       <c r="D14">
-        <v>6.858792222745495</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>5.915333603060949</v>
       </c>
       <c r="F14">
-        <v>24.60606604738273</v>
+        <v>15.6705711546265</v>
       </c>
       <c r="G14">
-        <v>2.093498337597946</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>17.92597140851034</v>
       </c>
       <c r="I14">
-        <v>16.23647516227967</v>
+        <v>4.18938346646278</v>
       </c>
       <c r="J14">
-        <v>5.84743670454074</v>
+        <v>6.761324266763326</v>
       </c>
       <c r="K14">
-        <v>13.81714325818014</v>
-      </c>
-      <c r="L14">
-        <v>8.249740507027068</v>
+        <v>8.875613838303899</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>12.35052182609382</v>
-      </c>
-      <c r="O14">
-        <v>17.3672696411625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.72288905817576</v>
+      </c>
+      <c r="Q14">
+        <v>10.88094789547697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.35799672847545</v>
+        <v>23.47322148618769</v>
       </c>
       <c r="C15">
-        <v>6.869312899679731</v>
+        <v>17.66376333288428</v>
       </c>
       <c r="D15">
-        <v>6.834465381607574</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>5.889705649207747</v>
       </c>
       <c r="F15">
-        <v>24.5701525811157</v>
+        <v>15.60619723769047</v>
       </c>
       <c r="G15">
-        <v>2.094016744565279</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>17.83511551366858</v>
       </c>
       <c r="I15">
-        <v>16.24255800917834</v>
+        <v>4.175439135513242</v>
       </c>
       <c r="J15">
-        <v>5.850845953168956</v>
+        <v>6.75875695496565</v>
       </c>
       <c r="K15">
-        <v>13.74525632053512</v>
-      </c>
-      <c r="L15">
-        <v>8.228173880521386</v>
+        <v>8.893064492462251</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>12.373839723193</v>
-      </c>
-      <c r="O15">
-        <v>17.35970882859055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.7133403635182</v>
+      </c>
+      <c r="Q15">
+        <v>10.85734111554853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.79470513708215</v>
+        <v>22.75231105596218</v>
       </c>
       <c r="C16">
-        <v>6.767981526825883</v>
+        <v>17.21083928825509</v>
       </c>
       <c r="D16">
-        <v>6.694092073748195</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>5.732761763013642</v>
       </c>
       <c r="F16">
-        <v>24.36977582824384</v>
+        <v>15.27299315563834</v>
       </c>
       <c r="G16">
-        <v>2.097009333603144</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>17.37834676911605</v>
       </c>
       <c r="I16">
-        <v>16.28140412530285</v>
+        <v>4.090882926753538</v>
       </c>
       <c r="J16">
-        <v>5.870910167543907</v>
+        <v>6.75654560036627</v>
       </c>
       <c r="K16">
-        <v>13.32631371110166</v>
-      </c>
-      <c r="L16">
-        <v>8.104532026602767</v>
+        <v>9.016746357403983</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>12.50806258243619</v>
-      </c>
-      <c r="O16">
-        <v>17.320910069134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.64587750773028</v>
+      </c>
+      <c r="Q16">
+        <v>10.75317238798561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.4404469911362</v>
+        <v>22.29787851596302</v>
       </c>
       <c r="C17">
-        <v>6.705125252591435</v>
+        <v>16.92749226100239</v>
       </c>
       <c r="D17">
-        <v>6.607151279805737</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>5.634361619950794</v>
       </c>
       <c r="F17">
-        <v>24.25166314599845</v>
+        <v>15.06870346739838</v>
       </c>
       <c r="G17">
-        <v>2.0988650846752</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>17.09792645088781</v>
       </c>
       <c r="I17">
-        <v>16.30870556221101</v>
+        <v>4.038624945862926</v>
       </c>
       <c r="J17">
-        <v>5.883684860969221</v>
+        <v>6.756496113294045</v>
       </c>
       <c r="K17">
-        <v>13.06305288683021</v>
-      </c>
-      <c r="L17">
-        <v>8.028665718372217</v>
+        <v>9.094353174916627</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>12.59095639553993</v>
-      </c>
-      <c r="O17">
-        <v>17.30106936051192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.60526768794805</v>
+      </c>
+      <c r="Q17">
+        <v>10.6917049061471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.23347600198348</v>
+        <v>22.04258244918489</v>
       </c>
       <c r="C18">
-        <v>6.668722241541392</v>
+        <v>16.74181315582688</v>
       </c>
       <c r="D18">
-        <v>6.556856422355413</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>5.573725978102017</v>
       </c>
       <c r="F18">
-        <v>24.18548270124798</v>
+        <v>14.96627241464868</v>
       </c>
       <c r="G18">
-        <v>2.099939943674814</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>16.96384629380867</v>
       </c>
       <c r="I18">
-        <v>16.32564975058862</v>
+        <v>4.006296243633114</v>
       </c>
       <c r="J18">
-        <v>5.891202035060827</v>
+        <v>6.761375648116386</v>
       </c>
       <c r="K18">
-        <v>12.90932758275941</v>
-      </c>
-      <c r="L18">
-        <v>7.985036005135784</v>
+        <v>9.148126460914332</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18">
-        <v>12.6388452563432</v>
-      </c>
-      <c r="O18">
-        <v>17.29108117263624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.57675632312507</v>
+      </c>
+      <c r="Q18">
+        <v>10.66887868399794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.16284627489457</v>
+        <v>21.94724041171327</v>
       </c>
       <c r="C19">
-        <v>6.656354399016534</v>
+        <v>16.6945360989425</v>
       </c>
       <c r="D19">
-        <v>6.539779320475398</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>5.555573976568599</v>
       </c>
       <c r="F19">
-        <v>24.16337517921191</v>
+        <v>14.92006782446475</v>
       </c>
       <c r="G19">
-        <v>2.100305172873344</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>16.89748617349554</v>
       </c>
       <c r="I19">
-        <v>16.33159671699573</v>
+        <v>3.99690203564266</v>
       </c>
       <c r="J19">
-        <v>5.893776174827906</v>
+        <v>6.759684068051591</v>
       </c>
       <c r="K19">
-        <v>12.85688242593383</v>
-      </c>
-      <c r="L19">
-        <v>7.970266078912101</v>
+        <v>9.159857647389964</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19">
-        <v>12.65509645921132</v>
-      </c>
-      <c r="O19">
-        <v>17.28794081057353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.57134666017356</v>
+      </c>
+      <c r="Q19">
+        <v>10.65233203983865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.47849037509233</v>
+        <v>22.34753698195694</v>
       </c>
       <c r="C20">
-        <v>6.711842371646217</v>
+        <v>16.95625445706676</v>
       </c>
       <c r="D20">
-        <v>6.616436513413363</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>5.64466348074975</v>
       </c>
       <c r="F20">
-        <v>24.26405450493821</v>
+        <v>15.09160916561157</v>
       </c>
       <c r="G20">
-        <v>2.098666766399574</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>17.1298972353065</v>
       </c>
       <c r="I20">
-        <v>16.30567006034757</v>
+        <v>4.044030744155897</v>
       </c>
       <c r="J20">
-        <v>5.882307391419221</v>
+        <v>6.756800663380269</v>
       </c>
       <c r="K20">
-        <v>13.0913158303205</v>
-      </c>
-      <c r="L20">
-        <v>8.036741422164184</v>
+        <v>9.086698023289564</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20">
-        <v>12.58211058527525</v>
-      </c>
-      <c r="O20">
-        <v>17.30303337007398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.6091335891427</v>
+      </c>
+      <c r="Q20">
+        <v>10.69906591948039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.50075112163218</v>
+        <v>23.64903010162745</v>
       </c>
       <c r="C21">
-        <v>6.895256784419389</v>
+        <v>17.79196994985625</v>
       </c>
       <c r="D21">
-        <v>6.870440035604701</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>5.931610688837937</v>
       </c>
       <c r="F21">
-        <v>24.62338399393257</v>
+        <v>15.68276079565671</v>
       </c>
       <c r="G21">
-        <v>2.093250126917149</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>17.93588386724591</v>
       </c>
       <c r="I21">
-        <v>16.23363006222285</v>
+        <v>4.198376187565167</v>
       </c>
       <c r="J21">
-        <v>5.845811267164672</v>
+        <v>6.756813579117761</v>
       </c>
       <c r="K21">
-        <v>13.8514916576403</v>
-      </c>
-      <c r="L21">
-        <v>8.260080947455759</v>
+        <v>8.855918243566038</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>12.3393505514837</v>
-      </c>
-      <c r="O21">
-        <v>17.37097650125074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.73462377949739</v>
+      </c>
+      <c r="Q21">
+        <v>10.87745258535523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.14058465661088</v>
+        <v>24.47394876864656</v>
       </c>
       <c r="C22">
-        <v>7.012807473322305</v>
+        <v>18.29228438601566</v>
       </c>
       <c r="D22">
-        <v>7.03357257951162</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>6.107809520902585</v>
       </c>
       <c r="F22">
-        <v>24.87412646022088</v>
+        <v>16.0893088247659</v>
       </c>
       <c r="G22">
-        <v>2.089772991504736</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>18.49783361958432</v>
       </c>
       <c r="I22">
-        <v>16.19833829995237</v>
+        <v>4.295393918870089</v>
       </c>
       <c r="J22">
-        <v>5.823506010640741</v>
+        <v>6.767499741260676</v>
       </c>
       <c r="K22">
-        <v>14.32793794777943</v>
-      </c>
-      <c r="L22">
-        <v>8.405846955672798</v>
+        <v>8.723372262639934</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>12.18240479683885</v>
-      </c>
-      <c r="O22">
-        <v>17.42873619091125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.8114277325063</v>
+      </c>
+      <c r="Q22">
+        <v>11.01819599674273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.80166458670017</v>
+        <v>24.05050441527234</v>
       </c>
       <c r="C23">
-        <v>6.950285100997496</v>
+        <v>18.00077164107253</v>
       </c>
       <c r="D23">
-        <v>6.946782051537105</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>6.010292046706787</v>
       </c>
       <c r="F23">
-        <v>24.73883355725345</v>
+        <v>15.89147086669893</v>
       </c>
       <c r="G23">
-        <v>2.091623227013909</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>18.23243414587384</v>
       </c>
       <c r="I23">
-        <v>16.21605881304344</v>
+        <v>4.241632781185548</v>
       </c>
       <c r="J23">
-        <v>5.835267287836351</v>
+        <v>6.767326477253022</v>
       </c>
       <c r="K23">
-        <v>14.07550572124677</v>
-      </c>
-      <c r="L23">
-        <v>8.328079013808388</v>
+        <v>8.80533524671799</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23">
-        <v>12.26602120432069</v>
-      </c>
-      <c r="O23">
-        <v>17.39665423514217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.76283536406824</v>
+      </c>
+      <c r="Q23">
+        <v>10.95760727878059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.46130125365428</v>
+        <v>22.3472094673246</v>
       </c>
       <c r="C24">
-        <v>6.708806389826863</v>
+        <v>16.89988638876127</v>
       </c>
       <c r="D24">
-        <v>6.612239625854714</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>5.633173349196261</v>
       </c>
       <c r="F24">
-        <v>24.25844700452776</v>
+        <v>15.1127156456003</v>
       </c>
       <c r="G24">
-        <v>2.098756401248957</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>17.17252191941055</v>
       </c>
       <c r="I24">
-        <v>16.30703853087574</v>
+        <v>4.037818864478679</v>
       </c>
       <c r="J24">
-        <v>5.882929607474406</v>
+        <v>6.766052053660751</v>
       </c>
       <c r="K24">
-        <v>13.0785455469681</v>
-      </c>
-      <c r="L24">
-        <v>8.033090434534106</v>
+        <v>9.108300420230389</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24">
-        <v>12.58610905137527</v>
-      </c>
-      <c r="O24">
-        <v>17.30214103058899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.59586730785334</v>
+      </c>
+      <c r="Q24">
+        <v>10.72028073261549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.96339039916116</v>
+        <v>20.34143220981736</v>
       </c>
       <c r="C25">
-        <v>6.438863607654059</v>
+        <v>15.63070402874741</v>
       </c>
       <c r="D25">
-        <v>6.240575571300546</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>5.19593107595217</v>
       </c>
       <c r="F25">
-        <v>23.80713439118982</v>
+        <v>14.27971898923814</v>
       </c>
       <c r="G25">
-        <v>2.106738592883526</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>16.03582995747168</v>
       </c>
       <c r="I25">
-        <v>16.4522255598899</v>
+        <v>3.810741280535041</v>
       </c>
       <c r="J25">
-        <v>5.940803138160764</v>
+        <v>6.782924151798306</v>
       </c>
       <c r="K25">
-        <v>11.91499901048243</v>
-      </c>
-      <c r="L25">
-        <v>7.715327652768668</v>
+        <v>9.458851629962469</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25">
-        <v>12.93951044410312</v>
-      </c>
-      <c r="O25">
-        <v>17.25420938475594</v>
+      <c r="P25">
+        <v>12.42629937751168</v>
+      </c>
+      <c r="Q25">
+        <v>10.49982494807166</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,917 +421,1067 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.75818236590151</v>
+        <v>18.64198958151196</v>
       </c>
       <c r="C2">
-        <v>14.55254089059953</v>
+        <v>14.63749302590301</v>
       </c>
       <c r="D2">
-        <v>4.83631177471776</v>
+        <v>4.883981997955382</v>
       </c>
       <c r="F2">
-        <v>13.73015495282502</v>
+        <v>13.70434349495654</v>
       </c>
       <c r="G2">
-        <v>15.30929384966362</v>
+        <v>14.55290147512589</v>
       </c>
       <c r="I2">
-        <v>3.633293817757401</v>
+        <v>3.585639625396936</v>
       </c>
       <c r="J2">
-        <v>6.824282806151445</v>
+        <v>7.611176321130997</v>
       </c>
       <c r="K2">
-        <v>9.762787969377099</v>
+        <v>9.800381080278106</v>
+      </c>
+      <c r="L2">
+        <v>9.689778541543372</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>12.29330401091041</v>
-      </c>
-      <c r="Q2">
-        <v>10.40609437464179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>4.805235113214064</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.35794175554582</v>
+      </c>
+      <c r="S2">
+        <v>10.43461453901072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.57275442586533</v>
+        <v>17.49254200934469</v>
       </c>
       <c r="C3">
-        <v>13.82152420649765</v>
+        <v>13.83685204981506</v>
       </c>
       <c r="D3">
-        <v>4.583340024876134</v>
+        <v>4.61984923944853</v>
       </c>
       <c r="F3">
-        <v>13.33736054201052</v>
+        <v>13.34691206248264</v>
       </c>
       <c r="G3">
-        <v>14.77419843150065</v>
+        <v>14.02874739489853</v>
       </c>
       <c r="I3">
-        <v>3.510273634072721</v>
+        <v>3.476050671223913</v>
       </c>
       <c r="J3">
-        <v>6.852214531995926</v>
+        <v>7.621541301791147</v>
       </c>
       <c r="K3">
-        <v>9.963698036901341</v>
+        <v>9.997308144878311</v>
+      </c>
+      <c r="L3">
+        <v>9.881383626088285</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>12.21895128962899</v>
-      </c>
-      <c r="Q3">
-        <v>10.33765592309656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>4.942070309642104</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.26249813164806</v>
+      </c>
+      <c r="S3">
+        <v>10.38542086968722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.79908969892107</v>
+        <v>16.74224041671106</v>
       </c>
       <c r="C4">
-        <v>13.35438826777564</v>
+        <v>13.32482081780687</v>
       </c>
       <c r="D4">
-        <v>4.42065565636552</v>
+        <v>4.449974266398214</v>
       </c>
       <c r="F4">
-        <v>13.10056983645303</v>
+        <v>13.13078355803633</v>
       </c>
       <c r="G4">
-        <v>14.45068535175988</v>
+        <v>13.71151817666502</v>
       </c>
       <c r="I4">
-        <v>3.432422911192364</v>
+        <v>3.406805433839649</v>
       </c>
       <c r="J4">
-        <v>6.872983384767034</v>
+        <v>7.629524682223404</v>
       </c>
       <c r="K4">
-        <v>10.09173551462197</v>
+        <v>10.12177995552313</v>
+      </c>
+      <c r="L4">
+        <v>10.00585274369058</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>12.1763792208822</v>
-      </c>
-      <c r="Q4">
-        <v>10.30319337606859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.050498813991636</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.20715039267442</v>
+      </c>
+      <c r="S4">
+        <v>10.36131033220801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.46759909970301</v>
+        <v>16.42057159874301</v>
       </c>
       <c r="C5">
-        <v>13.16818287951081</v>
+        <v>13.11996781820174</v>
       </c>
       <c r="D5">
-        <v>4.35391726589542</v>
+        <v>4.380223961275542</v>
       </c>
       <c r="F5">
-        <v>12.99943812160382</v>
+        <v>13.03776830924193</v>
       </c>
       <c r="G5">
-        <v>14.3093198863558</v>
+        <v>13.57211183311468</v>
       </c>
       <c r="I5">
-        <v>3.4003228492756</v>
+        <v>3.378532574787086</v>
       </c>
       <c r="J5">
-        <v>6.880809512321504</v>
+        <v>7.631711979517722</v>
       </c>
       <c r="K5">
-        <v>10.14226298054734</v>
+        <v>10.17061346132269</v>
+      </c>
+      <c r="L5">
+        <v>10.05523410466482</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>12.16150479406521</v>
-      </c>
-      <c r="Q5">
-        <v>10.28684436198322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>5.099790509644357</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.18713458249978</v>
+      </c>
+      <c r="S5">
+        <v>10.34882021642858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.40610664697196</v>
+        <v>16.36070136391304</v>
       </c>
       <c r="C6">
-        <v>13.14756225695094</v>
+        <v>13.0964169998674</v>
       </c>
       <c r="D6">
-        <v>4.344407801367328</v>
+        <v>4.370208928920034</v>
       </c>
       <c r="F6">
-        <v>12.97552917325461</v>
+        <v>13.01518360085068</v>
       </c>
       <c r="G6">
-        <v>14.27246966403501</v>
+        <v>13.53501477908466</v>
       </c>
       <c r="I6">
-        <v>3.395384528255496</v>
+        <v>3.37455077844276</v>
       </c>
       <c r="J6">
-        <v>6.880303816881741</v>
+        <v>7.630308229457833</v>
       </c>
       <c r="K6">
-        <v>10.14730155494487</v>
+        <v>10.17538845021721</v>
+      </c>
+      <c r="L6">
+        <v>10.0598306313241</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>12.16117173823667</v>
-      </c>
-      <c r="Q6">
-        <v>10.27915285253544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>5.107431844086114</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.18596670132029</v>
+      </c>
+      <c r="S6">
+        <v>10.34175890300545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.7793121492244</v>
+        <v>16.71715219884494</v>
       </c>
       <c r="C7">
-        <v>13.38027215583488</v>
+        <v>13.34253758001891</v>
       </c>
       <c r="D7">
-        <v>4.424274711559683</v>
+        <v>4.456763365265497</v>
       </c>
       <c r="F7">
-        <v>13.07972957411213</v>
+        <v>13.09689346614999</v>
       </c>
       <c r="G7">
-        <v>14.41238818208349</v>
+        <v>13.77526061478837</v>
       </c>
       <c r="I7">
-        <v>3.432922141428811</v>
+        <v>3.40767735176978</v>
       </c>
       <c r="J7">
-        <v>6.868011198395497</v>
+        <v>7.589971703837087</v>
       </c>
       <c r="K7">
-        <v>10.08303885429841</v>
+        <v>10.11032218072538</v>
+      </c>
+      <c r="L7">
+        <v>9.99360320802929</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>12.18193695994091</v>
-      </c>
-      <c r="Q7">
-        <v>10.28909911673958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>5.047233570203838</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.21475916851667</v>
+      </c>
+      <c r="S7">
+        <v>10.33815411812732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.3401556822419</v>
+        <v>18.21952993698891</v>
       </c>
       <c r="C8">
-        <v>14.33982286828102</v>
+        <v>14.37550957522087</v>
       </c>
       <c r="D8">
-        <v>4.756256802045173</v>
+        <v>4.810195495385707</v>
       </c>
       <c r="F8">
-        <v>13.56901597687911</v>
+        <v>13.51327290463697</v>
       </c>
       <c r="G8">
-        <v>15.0777436304582</v>
+        <v>14.65255077024153</v>
       </c>
       <c r="I8">
-        <v>3.592357383415397</v>
+        <v>3.548756987080725</v>
       </c>
       <c r="J8">
-        <v>6.826432078562703</v>
+        <v>7.49478189705888</v>
       </c>
       <c r="K8">
-        <v>9.818548036966328</v>
+        <v>9.845964173172247</v>
+      </c>
+      <c r="L8">
+        <v>9.734298596249275</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>12.27485993963185</v>
-      </c>
-      <c r="Q8">
-        <v>10.36272584797228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>4.834766277679393</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.33937692532706</v>
+      </c>
+      <c r="S8">
+        <v>10.36811372905435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.06225022826787</v>
+        <v>20.85664651853615</v>
       </c>
       <c r="C9">
-        <v>16.02525221735458</v>
+        <v>16.21729662379823</v>
       </c>
       <c r="D9">
-        <v>5.340346092033835</v>
+        <v>5.421687423401488</v>
       </c>
       <c r="F9">
-        <v>14.59048495751232</v>
+        <v>14.43368711326974</v>
       </c>
       <c r="G9">
-        <v>16.47486362267564</v>
+        <v>16.07793056181826</v>
       </c>
       <c r="I9">
-        <v>3.886037116895459</v>
+        <v>3.809729058885468</v>
       </c>
       <c r="J9">
-        <v>6.784003962221149</v>
+        <v>7.452670556747898</v>
       </c>
       <c r="K9">
-        <v>9.355116724092953</v>
+        <v>9.382720266958591</v>
+      </c>
+      <c r="L9">
+        <v>9.306558890712639</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>12.47102703028352</v>
-      </c>
-      <c r="Q9">
-        <v>10.59349213790238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>4.637660926451372</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.59092784103312</v>
+      </c>
+      <c r="S9">
+        <v>10.53515381893265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.83556051709189</v>
+        <v>22.54935942548145</v>
       </c>
       <c r="C10">
-        <v>17.17995235135291</v>
+        <v>17.43610642335109</v>
       </c>
       <c r="D10">
-        <v>5.733966393968442</v>
+        <v>5.848617712611268</v>
       </c>
       <c r="F10">
-        <v>15.34209760251641</v>
+        <v>15.04204368189852</v>
       </c>
       <c r="G10">
-        <v>17.49318302008106</v>
+        <v>17.61184813949388</v>
       </c>
       <c r="I10">
-        <v>4.092312177577219</v>
+        <v>3.99185358588749</v>
       </c>
       <c r="J10">
-        <v>6.770458793573137</v>
+        <v>7.238350831262191</v>
       </c>
       <c r="K10">
-        <v>9.034977806987179</v>
+        <v>9.039144537053247</v>
+      </c>
+      <c r="L10">
+        <v>9.014541456744302</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>12.63352929280427</v>
-      </c>
-      <c r="Q10">
-        <v>10.7963001266818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>4.607110099559821</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.80726364937304</v>
+      </c>
+      <c r="S10">
+        <v>10.63327096100214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.57662775108066</v>
+        <v>23.21460373492879</v>
       </c>
       <c r="C11">
-        <v>17.71985414269855</v>
+        <v>17.93648353601559</v>
       </c>
       <c r="D11">
-        <v>5.910429156562317</v>
+        <v>6.065428249713807</v>
       </c>
       <c r="F11">
-        <v>15.65831999744768</v>
+        <v>15.17740100144165</v>
       </c>
       <c r="G11">
-        <v>17.90870615278145</v>
+        <v>19.1091002885582</v>
       </c>
       <c r="I11">
-        <v>4.186704986433607</v>
+        <v>4.0735138773029</v>
       </c>
       <c r="J11">
-        <v>6.760844662340222</v>
+        <v>6.838513181783562</v>
       </c>
       <c r="K11">
-        <v>8.878975318421304</v>
+        <v>8.842895999883405</v>
+      </c>
+      <c r="L11">
+        <v>8.868518493044034</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>12.72103855041456</v>
-      </c>
-      <c r="Q11">
-        <v>10.87646838056149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>4.567457975710212</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.94279998917134</v>
+      </c>
+      <c r="S11">
+        <v>10.57455156128424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.860522742357</v>
+        <v>23.46545673985476</v>
       </c>
       <c r="C12">
-        <v>17.90137390892631</v>
+        <v>18.09485814327455</v>
       </c>
       <c r="D12">
-        <v>5.97293273582395</v>
+        <v>6.146094121678609</v>
       </c>
       <c r="F12">
-        <v>15.79247825549907</v>
+        <v>15.22920758815625</v>
       </c>
       <c r="G12">
-        <v>18.09193938924081</v>
+        <v>19.79967550156582</v>
       </c>
       <c r="I12">
-        <v>4.220880219126332</v>
+        <v>4.101820344760927</v>
       </c>
       <c r="J12">
-        <v>6.762306259461385</v>
+        <v>6.670255422653924</v>
       </c>
       <c r="K12">
-        <v>8.829386426621138</v>
+        <v>8.772978997042053</v>
+      </c>
+      <c r="L12">
+        <v>8.817799134278445</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>12.74927220585045</v>
-      </c>
-      <c r="Q12">
-        <v>10.91951832468797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>4.559868955085333</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.99214512010544</v>
+      </c>
+      <c r="S12">
+        <v>10.55323699347998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.80164773269118</v>
+        <v>23.41389831931511</v>
       </c>
       <c r="C13">
-        <v>17.85853145330301</v>
+        <v>18.05729994409323</v>
       </c>
       <c r="D13">
-        <v>5.958912776744936</v>
+        <v>6.128030966237586</v>
       </c>
       <c r="F13">
-        <v>15.76642550594929</v>
+        <v>15.22149804506972</v>
       </c>
       <c r="G13">
-        <v>18.05759686352937</v>
+        <v>19.65182822086541</v>
       </c>
       <c r="I13">
-        <v>4.213217184228698</v>
+        <v>4.095265370611043</v>
       </c>
       <c r="J13">
-        <v>6.762838728777515</v>
+        <v>6.707597411608798</v>
       </c>
       <c r="K13">
-        <v>8.841764668738616</v>
+        <v>8.789688601264931</v>
+      </c>
+      <c r="L13">
+        <v>8.829451389849394</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>12.74208058287764</v>
-      </c>
-      <c r="Q13">
-        <v>10.91245105351551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>4.563475855885151</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.9802365724776</v>
+      </c>
+      <c r="S13">
+        <v>10.5605025990843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.60096131111011</v>
+        <v>23.23630926835042</v>
       </c>
       <c r="C14">
-        <v>17.73318768644558</v>
+        <v>17.94804835840859</v>
       </c>
       <c r="D14">
-        <v>5.915333603060949</v>
+        <v>6.071767838702128</v>
       </c>
       <c r="F14">
-        <v>15.6705711546265</v>
+        <v>15.18315082272468</v>
       </c>
       <c r="G14">
-        <v>17.92597140851034</v>
+        <v>19.16619208809911</v>
       </c>
       <c r="I14">
-        <v>4.18938346646278</v>
+        <v>4.075642668406263</v>
       </c>
       <c r="J14">
-        <v>6.761324266763326</v>
+        <v>6.825209975136956</v>
       </c>
       <c r="K14">
-        <v>8.875613838303899</v>
+        <v>8.837852848803145</v>
+      </c>
+      <c r="L14">
+        <v>8.864667155606144</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>12.72288905817576</v>
-      </c>
-      <c r="Q14">
-        <v>10.88094789547697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>4.567664905572192</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.94631247502407</v>
+      </c>
+      <c r="S14">
+        <v>10.57394950600438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.47322148618769</v>
+        <v>23.12213506177808</v>
       </c>
       <c r="C15">
-        <v>17.66376333288428</v>
+        <v>17.88756394868855</v>
       </c>
       <c r="D15">
-        <v>5.889705649207747</v>
+        <v>6.038751675453564</v>
       </c>
       <c r="F15">
-        <v>15.60619723769047</v>
+        <v>15.1522149311201</v>
       </c>
       <c r="G15">
-        <v>17.83511551366858</v>
+        <v>18.87098352017597</v>
       </c>
       <c r="I15">
-        <v>4.175439135513242</v>
+        <v>4.064588306162335</v>
       </c>
       <c r="J15">
-        <v>6.75875695496565</v>
+        <v>6.893967792483416</v>
       </c>
       <c r="K15">
-        <v>8.893064492462251</v>
+        <v>8.863931627883252</v>
+      </c>
+      <c r="L15">
+        <v>8.884712515899466</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>12.7133403635182</v>
-      </c>
-      <c r="Q15">
-        <v>10.85734111554853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>4.566350459131082</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.92819850376624</v>
+      </c>
+      <c r="S15">
+        <v>10.57644651503423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.75231105596218</v>
+        <v>22.47030660759862</v>
       </c>
       <c r="C16">
-        <v>17.21083928825509</v>
+        <v>17.46945478237494</v>
       </c>
       <c r="D16">
-        <v>5.732761763013642</v>
+        <v>5.845204989057189</v>
       </c>
       <c r="F16">
-        <v>15.27299315563834</v>
+        <v>14.98299708273834</v>
       </c>
       <c r="G16">
-        <v>17.37834676911605</v>
+        <v>17.43857020912656</v>
       </c>
       <c r="I16">
-        <v>4.090882926753538</v>
+        <v>3.993866249079295</v>
       </c>
       <c r="J16">
-        <v>6.75654560036627</v>
+        <v>7.248494548471856</v>
       </c>
       <c r="K16">
-        <v>9.016746357403983</v>
+        <v>9.025890321592492</v>
+      </c>
+      <c r="L16">
+        <v>9.009444135654473</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>12.64587750773028</v>
-      </c>
-      <c r="Q16">
-        <v>10.75317238798561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>4.57979025773844</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.81727808387287</v>
+      </c>
+      <c r="S16">
+        <v>10.5983323666725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.29787851596302</v>
+        <v>22.05038059155027</v>
       </c>
       <c r="C17">
-        <v>16.92749226100239</v>
+        <v>17.19324216628166</v>
       </c>
       <c r="D17">
-        <v>5.634361619950794</v>
+        <v>5.72949942128431</v>
       </c>
       <c r="F17">
-        <v>15.06870346739838</v>
+        <v>14.85506007601251</v>
       </c>
       <c r="G17">
-        <v>17.09792645088781</v>
+        <v>16.7337330343959</v>
       </c>
       <c r="I17">
-        <v>4.038624945862926</v>
+        <v>3.949521911170691</v>
       </c>
       <c r="J17">
-        <v>6.756496113294045</v>
+        <v>7.411293108349833</v>
       </c>
       <c r="K17">
-        <v>9.094353174916627</v>
+        <v>9.119868445174813</v>
+      </c>
+      <c r="L17">
+        <v>9.085587856382885</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>12.60526768794805</v>
-      </c>
-      <c r="Q17">
-        <v>10.6917049061471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>4.586944582507968</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.7551274443437</v>
+      </c>
+      <c r="S17">
+        <v>10.59437641385499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.04258244918489</v>
+        <v>21.81206531715839</v>
       </c>
       <c r="C18">
-        <v>16.74181315582688</v>
+        <v>17.00606908739419</v>
       </c>
       <c r="D18">
-        <v>5.573725978102017</v>
+        <v>5.660796409859159</v>
       </c>
       <c r="F18">
-        <v>14.96627241464868</v>
+        <v>14.78772832659429</v>
       </c>
       <c r="G18">
-        <v>16.96384629380867</v>
+        <v>16.42000434052355</v>
       </c>
       <c r="I18">
-        <v>4.006296243633114</v>
+        <v>3.920553645792175</v>
       </c>
       <c r="J18">
-        <v>6.761375648116386</v>
+        <v>7.485577214490751</v>
       </c>
       <c r="K18">
-        <v>9.148126460914332</v>
+        <v>9.179874714356568</v>
+      </c>
+      <c r="L18">
+        <v>9.13391892699787</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>12.57675632312507</v>
-      </c>
-      <c r="Q18">
-        <v>10.66887868399794</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>4.599582995479263</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.715912881444</v>
+      </c>
+      <c r="S18">
+        <v>10.59742829059554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.94724041171327</v>
+        <v>21.72193544134198</v>
       </c>
       <c r="C19">
-        <v>16.6945360989425</v>
+        <v>16.95763862315299</v>
       </c>
       <c r="D19">
-        <v>5.555573976568599</v>
+        <v>5.640238991408393</v>
       </c>
       <c r="F19">
-        <v>14.92006782446475</v>
+        <v>14.75194475206295</v>
       </c>
       <c r="G19">
-        <v>16.89748617349554</v>
+        <v>16.30340052562522</v>
       </c>
       <c r="I19">
-        <v>3.99690203564266</v>
+        <v>3.912984343399752</v>
       </c>
       <c r="J19">
-        <v>6.759684068051591</v>
+        <v>7.503499951362834</v>
       </c>
       <c r="K19">
-        <v>9.159857647389964</v>
+        <v>9.193861348835958</v>
+      </c>
+      <c r="L19">
+        <v>9.146479425894901</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>12.57134666017356</v>
-      </c>
-      <c r="Q19">
-        <v>10.65233203983865</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>4.597327135546217</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.70725499373924</v>
+      </c>
+      <c r="S19">
+        <v>10.58859660754738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.34753698195694</v>
+        <v>22.09667042173779</v>
       </c>
       <c r="C20">
-        <v>16.95625445706676</v>
+        <v>17.22176366959193</v>
       </c>
       <c r="D20">
-        <v>5.64466348074975</v>
+        <v>5.741447515971556</v>
       </c>
       <c r="F20">
-        <v>15.09160916561157</v>
+        <v>14.87074646184829</v>
       </c>
       <c r="G20">
-        <v>17.1298972353065</v>
+        <v>16.80429623958092</v>
       </c>
       <c r="I20">
-        <v>4.044030744155897</v>
+        <v>3.954031916823244</v>
       </c>
       <c r="J20">
-        <v>6.756800663380269</v>
+        <v>7.396633065448172</v>
       </c>
       <c r="K20">
-        <v>9.086698023289564</v>
+        <v>9.110669048576097</v>
+      </c>
+      <c r="L20">
+        <v>9.077879456476797</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>12.6091335891427</v>
-      </c>
-      <c r="Q20">
-        <v>10.69906591948039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>4.586871620011833</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.76109089474751</v>
+      </c>
+      <c r="S20">
+        <v>10.59633407480232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.64903010162745</v>
+        <v>23.2631501302857</v>
       </c>
       <c r="C21">
-        <v>17.79196994985625</v>
+        <v>17.97871848152966</v>
       </c>
       <c r="D21">
-        <v>5.931610688837937</v>
+        <v>6.100923599824215</v>
       </c>
       <c r="F21">
-        <v>15.68276079565671</v>
+        <v>15.13737182564847</v>
       </c>
       <c r="G21">
-        <v>17.93588386724591</v>
+        <v>19.58323209629084</v>
       </c>
       <c r="I21">
-        <v>4.198376187565167</v>
+        <v>4.083161999685229</v>
       </c>
       <c r="J21">
-        <v>6.756813579117761</v>
+        <v>6.693315907068781</v>
       </c>
       <c r="K21">
-        <v>8.855918243566038</v>
+        <v>8.805021644676543</v>
+      </c>
+      <c r="L21">
+        <v>8.844721157011572</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>12.73462377949739</v>
-      </c>
-      <c r="Q21">
-        <v>10.87745258535523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.542873072322998</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.97071648067539</v>
+      </c>
+      <c r="S21">
+        <v>10.52574473816944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.47394876864656</v>
+        <v>23.99846799566252</v>
       </c>
       <c r="C22">
-        <v>18.29228438601566</v>
+        <v>18.42092984570048</v>
       </c>
       <c r="D22">
-        <v>6.107809520902585</v>
+        <v>6.326095786836837</v>
       </c>
       <c r="F22">
-        <v>16.0893088247659</v>
+        <v>15.31978824935983</v>
       </c>
       <c r="G22">
-        <v>18.49783361958432</v>
+        <v>21.49470881147026</v>
       </c>
       <c r="I22">
-        <v>4.295393918870089</v>
+        <v>4.16292636360696</v>
       </c>
       <c r="J22">
-        <v>6.767499741260676</v>
+        <v>6.294192489398358</v>
       </c>
       <c r="K22">
-        <v>8.723372262639934</v>
+        <v>8.614064696494923</v>
+      </c>
+      <c r="L22">
+        <v>8.707909389263992</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>12.8114277325063</v>
-      </c>
-      <c r="Q22">
-        <v>11.01819599674273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.540659960211264</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>13.10645379013271</v>
+      </c>
+      <c r="S22">
+        <v>10.48878138693035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.05050441527234</v>
+        <v>23.63293711130759</v>
       </c>
       <c r="C23">
-        <v>18.00077164107253</v>
+        <v>18.17696451196885</v>
       </c>
       <c r="D23">
-        <v>6.010292046706787</v>
+        <v>6.195963103299258</v>
       </c>
       <c r="F23">
-        <v>15.89147086669893</v>
+        <v>15.27111494495029</v>
       </c>
       <c r="G23">
-        <v>18.23243414587384</v>
+        <v>20.29478076023384</v>
       </c>
       <c r="I23">
-        <v>4.241632781185548</v>
+        <v>4.118016336795727</v>
       </c>
       <c r="J23">
-        <v>6.767326477253022</v>
+        <v>6.561422982996337</v>
       </c>
       <c r="K23">
-        <v>8.80533524671799</v>
+        <v>8.733451845555834</v>
+      </c>
+      <c r="L23">
+        <v>8.788357509156119</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>12.76283536406824</v>
-      </c>
-      <c r="Q23">
-        <v>10.95760727878059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.562809378284551</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>13.02007050255354</v>
+      </c>
+      <c r="S23">
+        <v>10.54622626657775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.3472094673246</v>
+        <v>22.09797058288434</v>
       </c>
       <c r="C24">
-        <v>16.89988638876127</v>
+        <v>17.164835209242</v>
       </c>
       <c r="D24">
-        <v>5.633173349196261</v>
+        <v>5.729198469434415</v>
       </c>
       <c r="F24">
-        <v>15.1127156456003</v>
+        <v>14.89505661784758</v>
       </c>
       <c r="G24">
-        <v>17.17252191941055</v>
+        <v>16.83027396703626</v>
       </c>
       <c r="I24">
-        <v>4.037818864478679</v>
+        <v>3.946359348816869</v>
       </c>
       <c r="J24">
-        <v>6.766052053660751</v>
+        <v>7.411540494325113</v>
       </c>
       <c r="K24">
-        <v>9.108300420230389</v>
+        <v>9.131351651183037</v>
+      </c>
+      <c r="L24">
+        <v>9.091330456513347</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>12.59586730785334</v>
-      </c>
-      <c r="Q24">
-        <v>10.72028073261549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>4.605333347777667</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.74664526950924</v>
+      </c>
+      <c r="S24">
+        <v>10.61962260935111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.34143220981736</v>
+        <v>20.16411766741843</v>
       </c>
       <c r="C25">
-        <v>15.63070402874741</v>
+        <v>15.7936747827494</v>
       </c>
       <c r="D25">
-        <v>5.19593107595217</v>
+        <v>5.266199069941256</v>
       </c>
       <c r="F25">
-        <v>14.27971898923814</v>
+        <v>14.16815463602725</v>
       </c>
       <c r="G25">
-        <v>16.03582995747168</v>
+        <v>15.49851081261534</v>
       </c>
       <c r="I25">
-        <v>3.810741280535041</v>
+        <v>3.745097398464756</v>
       </c>
       <c r="J25">
-        <v>6.782924151798306</v>
+        <v>7.502200026625736</v>
       </c>
       <c r="K25">
-        <v>9.458851629962469</v>
+        <v>9.492808310575912</v>
+      </c>
+      <c r="L25">
+        <v>9.407410203227753</v>
       </c>
       <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>12.42629937751168</v>
-      </c>
-      <c r="Q25">
-        <v>10.49982494807166</v>
+        <v>4.65633241881395</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.52825378345341</v>
+      </c>
+      <c r="S25">
+        <v>10.47302899198058</v>
       </c>
     </row>
   </sheetData>
